--- a/6-data-profiling-and-exploration/python-in-excel-data-profiling-start.xlsx
+++ b/6-data-profiling-and-exploration/python-in-excel-data-profiling-start.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27723"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27730"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://maqimzmnjbt5wavnbicv98tlhog-my.sharepoint.com/personal/george_stringfestanalytics_com/Documents/Stringfest assets/OReilly/oreilly-shortcuts/python-in-excel/6-data-profiling-and-exploration/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\GeorgeMount\Documents\GitHub\oreilly-shortcuts-python-in-excel\6-data-profiling-and-exploration\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="32" documentId="13_ncr:1_{1F400DA9-AE24-4CC8-A87B-1275C71802DD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{E570C54B-4543-4C12-A680-0687E30F32DF}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C591FA2E-27B7-4B85-95FF-48EC825226FB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-93" yWindow="-93" windowWidth="25786" windowHeight="14586" activeTab="1" xr2:uid="{87788C84-4F35-45B1-8C2A-71EE4AC07C4C}"/>
+    <workbookView xWindow="-96" yWindow="-96" windowWidth="23232" windowHeight="13152" xr2:uid="{87788C84-4F35-45B1-8C2A-71EE4AC07C4C}"/>
   </bookViews>
   <sheets>
     <sheet name="sales" sheetId="2" r:id="rId1"/>
@@ -51,7 +51,7 @@
       </extLst>
     </bk>
   </futureMetadata>
-  <futureMetadata name="XLRICHVALUE" count="21">
+  <futureMetadata name="XLRICHVALUE" count="10">
     <bk>
       <extLst>
         <ext uri="{3e2802c4-a4d2-4d8b-9148-e3be6c30e623}">
@@ -122,90 +122,13 @@
         </ext>
       </extLst>
     </bk>
-    <bk>
-      <extLst>
-        <ext uri="{3e2802c4-a4d2-4d8b-9148-e3be6c30e623}">
-          <xlrd:rvb i="10"/>
-        </ext>
-      </extLst>
-    </bk>
-    <bk>
-      <extLst>
-        <ext uri="{3e2802c4-a4d2-4d8b-9148-e3be6c30e623}">
-          <xlrd:rvb i="11"/>
-        </ext>
-      </extLst>
-    </bk>
-    <bk>
-      <extLst>
-        <ext uri="{3e2802c4-a4d2-4d8b-9148-e3be6c30e623}">
-          <xlrd:rvb i="12"/>
-        </ext>
-      </extLst>
-    </bk>
-    <bk>
-      <extLst>
-        <ext uri="{3e2802c4-a4d2-4d8b-9148-e3be6c30e623}">
-          <xlrd:rvb i="13"/>
-        </ext>
-      </extLst>
-    </bk>
-    <bk>
-      <extLst>
-        <ext uri="{3e2802c4-a4d2-4d8b-9148-e3be6c30e623}">
-          <xlrd:rvb i="14"/>
-        </ext>
-      </extLst>
-    </bk>
-    <bk>
-      <extLst>
-        <ext uri="{3e2802c4-a4d2-4d8b-9148-e3be6c30e623}">
-          <xlrd:rvb i="15"/>
-        </ext>
-      </extLst>
-    </bk>
-    <bk>
-      <extLst>
-        <ext uri="{3e2802c4-a4d2-4d8b-9148-e3be6c30e623}">
-          <xlrd:rvb i="16"/>
-        </ext>
-      </extLst>
-    </bk>
-    <bk>
-      <extLst>
-        <ext uri="{3e2802c4-a4d2-4d8b-9148-e3be6c30e623}">
-          <xlrd:rvb i="17"/>
-        </ext>
-      </extLst>
-    </bk>
-    <bk>
-      <extLst>
-        <ext uri="{3e2802c4-a4d2-4d8b-9148-e3be6c30e623}">
-          <xlrd:rvb i="18"/>
-        </ext>
-      </extLst>
-    </bk>
-    <bk>
-      <extLst>
-        <ext uri="{3e2802c4-a4d2-4d8b-9148-e3be6c30e623}">
-          <xlrd:rvb i="19"/>
-        </ext>
-      </extLst>
-    </bk>
-    <bk>
-      <extLst>
-        <ext uri="{3e2802c4-a4d2-4d8b-9148-e3be6c30e623}">
-          <xlrd:rvb i="25"/>
-        </ext>
-      </extLst>
-    </bk>
   </futureMetadata>
   <cellMetadata count="1">
     <bk>
       <rc t="1" v="0"/>
     </bk>
   </cellMetadata>
-  <valueMetadata count="21">
+  <valueMetadata count="10">
     <bk>
       <rc t="2" v="0"/>
     </bk>
@@ -236,39 +159,6 @@
     <bk>
       <rc t="2" v="9"/>
     </bk>
-    <bk>
-      <rc t="2" v="10"/>
-    </bk>
-    <bk>
-      <rc t="2" v="11"/>
-    </bk>
-    <bk>
-      <rc t="2" v="12"/>
-    </bk>
-    <bk>
-      <rc t="2" v="13"/>
-    </bk>
-    <bk>
-      <rc t="2" v="14"/>
-    </bk>
-    <bk>
-      <rc t="2" v="15"/>
-    </bk>
-    <bk>
-      <rc t="2" v="16"/>
-    </bk>
-    <bk>
-      <rc t="2" v="17"/>
-    </bk>
-    <bk>
-      <rc t="2" v="18"/>
-    </bk>
-    <bk>
-      <rc t="2" v="19"/>
-    </bk>
-    <bk>
-      <rc t="2" v="20"/>
-    </bk>
   </valueMetadata>
 </metadata>
 </file>
@@ -294,21 +184,6 @@
     <pythonScript>
       <code>sales_df = xl(%P2%, headers=True)
 sales_df.head(10)</code>
-    </pythonScript>
-    <pythonScript>
-      <code>sales_df.tail()</code>
-    </pythonScript>
-    <pythonScript>
-      <code>sales_df.sample()</code>
-    </pythonScript>
-    <pythonScript>
-      <code>sales_df.describe(percentiles=[.1, .5, .9])</code>
-    </pythonScript>
-    <pythonScript>
-      <code>sales_df.describe(include='all')</code>
-    </pythonScript>
-    <pythonScript>
-      <code>sales_df['country'].value_counts()</code>
     </pythonScript>
   </pythonScripts>
 </python>
@@ -510,159 +385,8 @@
 </rvTypesInfo>
 </file>
 
-<file path=xl/richData/rdarray.xml><?xml version="1.0" encoding="utf-8"?>
-<arrayData xmlns="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" count="1">
-  <a r="12" c="12">
-    <v t="s"/>
-    <v t="s">order_id</v>
-    <v t="s">customer_id</v>
-    <v t="s">product_id</v>
-    <v t="s">product_name</v>
-    <v t="s">category</v>
-    <v t="s">...</v>
-    <v t="s">quantity</v>
-    <v t="s">order_date</v>
-    <v t="s">customer_age</v>
-    <v t="s">customer_gender</v>
-    <v t="s">country</v>
-    <v t="s">count</v>
-    <v>500</v>
-    <v>500</v>
-    <v>500</v>
-    <v>500</v>
-    <v>500</v>
-    <v t="s">...</v>
-    <v>500</v>
-    <v>500</v>
-    <v>500</v>
-    <v>500</v>
-    <v>500</v>
-    <v t="s">unique</v>
-    <v t="r">20</v>
-    <v t="r">20</v>
-    <v t="r">20</v>
-    <v>10</v>
-    <v>3</v>
-    <v t="s">...</v>
-    <v t="r">20</v>
-    <v t="r">20</v>
-    <v t="r">20</v>
-    <v>2</v>
-    <v>6</v>
-    <v t="s">top</v>
-    <v t="r">20</v>
-    <v t="r">20</v>
-    <v t="r">20</v>
-    <v t="s">Laptop</v>
-    <v t="s">Accessories</v>
-    <v t="s">...</v>
-    <v t="r">20</v>
-    <v t="r">20</v>
-    <v t="r">20</v>
-    <v t="s">Male</v>
-    <v t="s">Canada</v>
-    <v t="s">freq</v>
-    <v t="r">20</v>
-    <v t="r">20</v>
-    <v t="r">20</v>
-    <v>61</v>
-    <v>199</v>
-    <v t="s">...</v>
-    <v t="r">20</v>
-    <v t="r">20</v>
-    <v t="r">20</v>
-    <v>262</v>
-    <v>93</v>
-    <v t="s">mean</v>
-    <v>250.5</v>
-    <v>101.312</v>
-    <v>25.36</v>
-    <v t="r">20</v>
-    <v t="r">20</v>
-    <v t="s">...</v>
-    <v>2.5739999999999998</v>
-    <v t="r">16</v>
-    <v>41.38</v>
-    <v t="r">20</v>
-    <v t="r">20</v>
-    <v t="s">...</v>
-    <v t="s">...</v>
-    <v t="s">...</v>
-    <v t="s">...</v>
-    <v t="s">...</v>
-    <v t="s">...</v>
-    <v t="s">...</v>
-    <v t="s">...</v>
-    <v t="s">...</v>
-    <v t="s">...</v>
-    <v t="s">...</v>
-    <v t="s">...</v>
-    <v t="s">25%</v>
-    <v>125.75</v>
-    <v>47.75</v>
-    <v>14</v>
-    <v t="r">20</v>
-    <v t="r">20</v>
-    <v t="s">...</v>
-    <v>2</v>
-    <v t="r">21</v>
-    <v>28</v>
-    <v t="r">20</v>
-    <v t="r">20</v>
-    <v t="s">50%</v>
-    <v>250.5</v>
-    <v>106</v>
-    <v>25</v>
-    <v t="r">20</v>
-    <v t="r">20</v>
-    <v t="s">...</v>
-    <v>3</v>
-    <v t="r">10</v>
-    <v>42</v>
-    <v t="r">20</v>
-    <v t="r">20</v>
-    <v t="s">75%</v>
-    <v>375.25</v>
-    <v>150</v>
-    <v>37</v>
-    <v t="r">20</v>
-    <v t="r">20</v>
-    <v t="s">...</v>
-    <v>4</v>
-    <v t="r">22</v>
-    <v>53</v>
-    <v t="r">20</v>
-    <v t="r">20</v>
-    <v t="s">max</v>
-    <v>500</v>
-    <v>200</v>
-    <v>50</v>
-    <v t="r">20</v>
-    <v t="r">20</v>
-    <v t="s">...</v>
-    <v>4</v>
-    <v t="r">19</v>
-    <v>64</v>
-    <v t="r">20</v>
-    <v t="r">20</v>
-    <v t="s">std</v>
-    <v>144.4818327679989</v>
-    <v>58.975001123484788</v>
-    <v>14.087985756855764</v>
-    <v t="r">20</v>
-    <v t="r">20</v>
-    <v t="s">...</v>
-    <v>1.1450529649693799</v>
-    <v t="r">20</v>
-    <v>13.749826014566938</v>
-    <v t="r">20</v>
-    <v t="r">20</v>
-  </a>
-</arrayData>
-</file>
-
 <file path=xl/richData/rdrichvalue.xml><?xml version="1.0" encoding="utf-8"?>
-<rvData xmlns="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata" count="26">
+<rvData xmlns="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata" count="10">
   <rv s="0">
     <fb>44879</fb>
     <v>0</v>
@@ -703,178 +427,44 @@
     <fb>44657</fb>
     <v>0</v>
   </rv>
-  <rv s="0">
-    <fb>44741</fb>
-    <v>0</v>
-  </rv>
-  <rv s="0">
-    <fb>44843</fb>
-    <v>0</v>
-  </rv>
-  <rv s="0">
-    <fb>44881</fb>
-    <v>0</v>
-  </rv>
-  <rv s="0">
-    <fb>44787</fb>
-    <v>0</v>
-  </rv>
-  <rv s="0">
-    <fb>44876</fb>
-    <v>0</v>
-  </rv>
-  <rv s="0">
-    <fb>44664</fb>
-    <v>0</v>
-  </rv>
-  <rv s="0">
-    <fb>44738.993999999999</fb>
-    <v>1</v>
-  </rv>
-  <rv s="0">
-    <fb>44595.9</fb>
-    <v>1</v>
-  </rv>
-  <rv s="0">
-    <fb>44884.2</fb>
-    <v>1</v>
-  </rv>
-  <rv s="0">
-    <fb>44926</fb>
-    <v>0</v>
-  </rv>
-  <rv s="0">
-    <fb>0</fb>
-    <v>4</v>
-  </rv>
-  <rv s="0">
-    <fb>44651</fb>
-    <v>0</v>
-  </rv>
-  <rv s="0">
-    <fb>44820</fb>
-    <v>0</v>
-  </rv>
-  <rv s="1">
-    <v>0</v>
-  </rv>
-  <rv s="2">
-    <v>DataFrame</v>
-    <v>3</v>
-    <v>23</v>
-  </rv>
-  <rv s="3">
-    <v>&lt;class 'pandas.core.frame.DataFrame'&gt;</v>
-    <v>DataFrame</v>
-    <v xml:space="preserve">          order_id  customer_id  product_id product_name     category  \
-count   500.000000   500.000000  500.000000          500          500   
-unique         NaN          NaN         NaN           10            3   
-top            NaN          NaN  ...</v>
-    <v>24</v>
-    <v>5</v>
-  </rv>
 </rvData>
 </file>
 
 <file path=xl/richData/rdrichvaluestructure.xml><?xml version="1.0" encoding="utf-8"?>
-<rvStructures xmlns="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata" count="4">
+<rvStructures xmlns="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata" count="1">
   <s t="_formattednumber">
     <k n="_Format" t="spb"/>
-  </s>
-  <s t="_array">
-    <k n="array" t="a"/>
-  </s>
-  <s t="_entity">
-    <k n="_DisplayString" t="s"/>
-    <k n="_ViewInfo" t="spb"/>
-    <k n="arrayPreview" t="r"/>
-  </s>
-  <s t="_python">
-    <k n="Python_type" t="s"/>
-    <k n="Python_typeName" t="s"/>
-    <k n="Python_str" t="s"/>
-    <k n="preview" t="r"/>
-    <k n="provider" t="spb"/>
   </s>
 </rvStructures>
 </file>
 
 <file path=xl/richData/rdsupportingpropertybag.xml><?xml version="1.0" encoding="utf-8"?>
 <supportingPropertyBags xmlns="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2">
-  <spbData count="6">
+  <spbData count="1">
     <spb s="0">
       <v>1</v>
-    </spb>
-    <spb s="0">
-      <v>2</v>
-    </spb>
-    <spb s="1">
-      <v>11</v>
-      <v>11</v>
-      <v>DataFrame</v>
-      <v>arrayPreview</v>
-      <v>1</v>
-    </spb>
-    <spb s="2">
-      <v>2</v>
-    </spb>
-    <spb s="0">
-      <v>3</v>
-    </spb>
-    <spb s="3">
-      <v>https://www.anaconda.com/excel</v>
-      <v>https://res.cdn.office.net/officepysvc/prod-preview/anacondalogo.png</v>
-      <v>Python provided by Anaconda</v>
     </spb>
   </spbData>
 </supportingPropertyBags>
 </file>
 
 <file path=xl/richData/rdsupportingpropertybagstructure.xml><?xml version="1.0" encoding="utf-8"?>
-<spbStructures xmlns="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" count="4">
+<spbStructures xmlns="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" count="1">
   <s>
     <k n="_Self" t="i"/>
-  </s>
-  <s>
-    <k n="drw" t="i"/>
-    <k n="dcol" t="i"/>
-    <k n="name" t="s"/>
-    <k n="array" t="s"/>
-    <k n="headers" t="b"/>
-  </s>
-  <s>
-    <k n="ArrayCardInfo" t="spb"/>
-  </s>
-  <s>
-    <k n="url" t="s"/>
-    <k n="logoUrl" t="s"/>
-    <k n="description" t="s"/>
   </s>
 </spbStructures>
 </file>
 
 <file path=xl/richData/richStyles.xml><?xml version="1.0" encoding="utf-8"?>
 <richStyleSheet xmlns="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" mc:Ignorable="x">
-  <dxfs count="3">
+  <dxfs count="1">
     <x:dxf>
       <x:numFmt numFmtId="19" formatCode="m/d/yyyy"/>
     </x:dxf>
-    <x:dxf>
-      <x:numFmt numFmtId="27" formatCode="m/d/yyyy\ h:mm"/>
-    </x:dxf>
-    <x:dxf>
-      <x:numFmt numFmtId="0" formatCode="General"/>
-    </x:dxf>
   </dxfs>
-  <richProperties>
-    <rPr n="NumberFormat" t="s"/>
-  </richProperties>
   <richStyles>
     <rSty dxfid="0"/>
-    <rSty dxfid="1"/>
-    <rSty dxfid="2">
-      <rpv i="0">0;-0;"nan"</rpv>
-    </rSty>
   </richStyles>
 </richStyleSheet>
 </file>
@@ -1218,26 +808,26 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C90CDA04-8C43-4254-BCF8-5896515456A3}">
   <dimension ref="A1:W501"/>
   <sheetViews>
-    <sheetView topLeftCell="D1" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="D1" workbookViewId="0">
       <selection activeCell="M2" sqref="M2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="20.7" x14ac:dyDescent="0.7"/>
+  <sheetFormatPr defaultRowHeight="21.3" x14ac:dyDescent="0.85"/>
   <cols>
-    <col min="1" max="1" width="8.4140625" customWidth="1"/>
-    <col min="2" max="2" width="11.875" customWidth="1"/>
-    <col min="3" max="3" width="10.45703125" customWidth="1"/>
-    <col min="4" max="4" width="13.5" customWidth="1"/>
-    <col min="5" max="5" width="10.1640625" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="9.9140625" customWidth="1"/>
-    <col min="7" max="7" width="8.5" customWidth="1"/>
-    <col min="8" max="8" width="10.5" customWidth="1"/>
-    <col min="9" max="9" width="13.1640625" customWidth="1"/>
-    <col min="10" max="10" width="15.95703125" customWidth="1"/>
-    <col min="11" max="11" width="7.95703125" customWidth="1"/>
+    <col min="1" max="1" width="8.40625" customWidth="1"/>
+    <col min="2" max="2" width="11.88671875" customWidth="1"/>
+    <col min="3" max="3" width="10.44140625" customWidth="1"/>
+    <col min="4" max="4" width="13.48046875" customWidth="1"/>
+    <col min="5" max="5" width="10.14453125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="9.92578125" customWidth="1"/>
+    <col min="7" max="7" width="8.48046875" customWidth="1"/>
+    <col min="8" max="8" width="10.48046875" customWidth="1"/>
+    <col min="9" max="9" width="13.14453125" customWidth="1"/>
+    <col min="10" max="10" width="15.9609375" customWidth="1"/>
+    <col min="11" max="11" width="7.9609375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:23" x14ac:dyDescent="0.7">
+    <row r="1" spans="1:23" x14ac:dyDescent="0.85">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -1272,7 +862,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="2" spans="1:23" x14ac:dyDescent="0.7">
+    <row r="2" spans="1:23" x14ac:dyDescent="0.85">
       <c r="A2">
         <v>1</v>
       </c>
@@ -1341,7 +931,7 @@
         <v>country</v>
       </c>
     </row>
-    <row r="3" spans="1:23" x14ac:dyDescent="0.7">
+    <row r="3" spans="1:23" x14ac:dyDescent="0.85">
       <c r="A3">
         <v>2</v>
       </c>
@@ -1409,7 +999,7 @@
         <v>Germany</v>
       </c>
     </row>
-    <row r="4" spans="1:23" x14ac:dyDescent="0.7">
+    <row r="4" spans="1:23" x14ac:dyDescent="0.85">
       <c r="A4">
         <v>3</v>
       </c>
@@ -1477,7 +1067,7 @@
         <v>Canada</v>
       </c>
     </row>
-    <row r="5" spans="1:23" x14ac:dyDescent="0.7">
+    <row r="5" spans="1:23" x14ac:dyDescent="0.85">
       <c r="A5">
         <v>4</v>
       </c>
@@ -1545,7 +1135,7 @@
         <v>UK</v>
       </c>
     </row>
-    <row r="6" spans="1:23" x14ac:dyDescent="0.7">
+    <row r="6" spans="1:23" x14ac:dyDescent="0.85">
       <c r="A6">
         <v>5</v>
       </c>
@@ -1613,7 +1203,7 @@
         <v>Germany</v>
       </c>
     </row>
-    <row r="7" spans="1:23" x14ac:dyDescent="0.7">
+    <row r="7" spans="1:23" x14ac:dyDescent="0.85">
       <c r="A7">
         <v>6</v>
       </c>
@@ -1681,7 +1271,7 @@
         <v>Australia</v>
       </c>
     </row>
-    <row r="8" spans="1:23" x14ac:dyDescent="0.7">
+    <row r="8" spans="1:23" x14ac:dyDescent="0.85">
       <c r="A8">
         <v>7</v>
       </c>
@@ -1749,7 +1339,7 @@
         <v>USA</v>
       </c>
     </row>
-    <row r="9" spans="1:23" x14ac:dyDescent="0.7">
+    <row r="9" spans="1:23" x14ac:dyDescent="0.85">
       <c r="A9">
         <v>8</v>
       </c>
@@ -1817,7 +1407,7 @@
         <v>Australia</v>
       </c>
     </row>
-    <row r="10" spans="1:23" x14ac:dyDescent="0.7">
+    <row r="10" spans="1:23" x14ac:dyDescent="0.85">
       <c r="A10">
         <v>9</v>
       </c>
@@ -1885,7 +1475,7 @@
         <v>Australia</v>
       </c>
     </row>
-    <row r="11" spans="1:23" x14ac:dyDescent="0.7">
+    <row r="11" spans="1:23" x14ac:dyDescent="0.85">
       <c r="A11">
         <v>10</v>
       </c>
@@ -1953,7 +1543,7 @@
         <v>USA</v>
       </c>
     </row>
-    <row r="12" spans="1:23" x14ac:dyDescent="0.7">
+    <row r="12" spans="1:23" x14ac:dyDescent="0.85">
       <c r="A12">
         <v>11</v>
       </c>
@@ -2021,7 +1611,7 @@
         <v>Australia</v>
       </c>
     </row>
-    <row r="13" spans="1:23" x14ac:dyDescent="0.7">
+    <row r="13" spans="1:23" x14ac:dyDescent="0.85">
       <c r="A13">
         <v>12</v>
       </c>
@@ -2056,7 +1646,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="14" spans="1:23" x14ac:dyDescent="0.7">
+    <row r="14" spans="1:23" x14ac:dyDescent="0.85">
       <c r="A14">
         <v>13</v>
       </c>
@@ -2091,7 +1681,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="15" spans="1:23" x14ac:dyDescent="0.7">
+    <row r="15" spans="1:23" x14ac:dyDescent="0.85">
       <c r="A15">
         <v>14</v>
       </c>
@@ -2126,7 +1716,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="16" spans="1:23" x14ac:dyDescent="0.7">
+    <row r="16" spans="1:23" x14ac:dyDescent="0.85">
       <c r="A16">
         <v>15</v>
       </c>
@@ -2161,7 +1751,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="17" spans="1:11" x14ac:dyDescent="0.7">
+    <row r="17" spans="1:11" x14ac:dyDescent="0.85">
       <c r="A17">
         <v>16</v>
       </c>
@@ -2196,7 +1786,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="18" spans="1:11" x14ac:dyDescent="0.7">
+    <row r="18" spans="1:11" x14ac:dyDescent="0.85">
       <c r="A18">
         <v>17</v>
       </c>
@@ -2231,7 +1821,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="19" spans="1:11" x14ac:dyDescent="0.7">
+    <row r="19" spans="1:11" x14ac:dyDescent="0.85">
       <c r="A19">
         <v>18</v>
       </c>
@@ -2266,7 +1856,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="20" spans="1:11" x14ac:dyDescent="0.7">
+    <row r="20" spans="1:11" x14ac:dyDescent="0.85">
       <c r="A20">
         <v>19</v>
       </c>
@@ -2301,7 +1891,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="21" spans="1:11" x14ac:dyDescent="0.7">
+    <row r="21" spans="1:11" x14ac:dyDescent="0.85">
       <c r="A21">
         <v>20</v>
       </c>
@@ -2336,7 +1926,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="22" spans="1:11" x14ac:dyDescent="0.7">
+    <row r="22" spans="1:11" x14ac:dyDescent="0.85">
       <c r="A22">
         <v>21</v>
       </c>
@@ -2371,7 +1961,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="23" spans="1:11" x14ac:dyDescent="0.7">
+    <row r="23" spans="1:11" x14ac:dyDescent="0.85">
       <c r="A23">
         <v>22</v>
       </c>
@@ -2406,7 +1996,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="24" spans="1:11" x14ac:dyDescent="0.7">
+    <row r="24" spans="1:11" x14ac:dyDescent="0.85">
       <c r="A24">
         <v>23</v>
       </c>
@@ -2441,7 +2031,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="25" spans="1:11" x14ac:dyDescent="0.7">
+    <row r="25" spans="1:11" x14ac:dyDescent="0.85">
       <c r="A25">
         <v>24</v>
       </c>
@@ -2476,7 +2066,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="26" spans="1:11" x14ac:dyDescent="0.7">
+    <row r="26" spans="1:11" x14ac:dyDescent="0.85">
       <c r="A26">
         <v>25</v>
       </c>
@@ -2511,7 +2101,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="27" spans="1:11" x14ac:dyDescent="0.7">
+    <row r="27" spans="1:11" x14ac:dyDescent="0.85">
       <c r="A27">
         <v>26</v>
       </c>
@@ -2546,7 +2136,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="28" spans="1:11" x14ac:dyDescent="0.7">
+    <row r="28" spans="1:11" x14ac:dyDescent="0.85">
       <c r="A28">
         <v>27</v>
       </c>
@@ -2581,7 +2171,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="29" spans="1:11" x14ac:dyDescent="0.7">
+    <row r="29" spans="1:11" x14ac:dyDescent="0.85">
       <c r="A29">
         <v>28</v>
       </c>
@@ -2616,7 +2206,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="30" spans="1:11" x14ac:dyDescent="0.7">
+    <row r="30" spans="1:11" x14ac:dyDescent="0.85">
       <c r="A30">
         <v>29</v>
       </c>
@@ -2651,7 +2241,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="31" spans="1:11" x14ac:dyDescent="0.7">
+    <row r="31" spans="1:11" x14ac:dyDescent="0.85">
       <c r="A31">
         <v>30</v>
       </c>
@@ -2686,7 +2276,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="32" spans="1:11" x14ac:dyDescent="0.7">
+    <row r="32" spans="1:11" x14ac:dyDescent="0.85">
       <c r="A32">
         <v>31</v>
       </c>
@@ -2721,7 +2311,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="33" spans="1:11" x14ac:dyDescent="0.7">
+    <row r="33" spans="1:11" x14ac:dyDescent="0.85">
       <c r="A33">
         <v>32</v>
       </c>
@@ -2756,7 +2346,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="34" spans="1:11" x14ac:dyDescent="0.7">
+    <row r="34" spans="1:11" x14ac:dyDescent="0.85">
       <c r="A34">
         <v>33</v>
       </c>
@@ -2791,7 +2381,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="35" spans="1:11" x14ac:dyDescent="0.7">
+    <row r="35" spans="1:11" x14ac:dyDescent="0.85">
       <c r="A35">
         <v>34</v>
       </c>
@@ -2826,7 +2416,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="36" spans="1:11" x14ac:dyDescent="0.7">
+    <row r="36" spans="1:11" x14ac:dyDescent="0.85">
       <c r="A36">
         <v>35</v>
       </c>
@@ -2861,7 +2451,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="37" spans="1:11" x14ac:dyDescent="0.7">
+    <row r="37" spans="1:11" x14ac:dyDescent="0.85">
       <c r="A37">
         <v>36</v>
       </c>
@@ -2896,7 +2486,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="38" spans="1:11" x14ac:dyDescent="0.7">
+    <row r="38" spans="1:11" x14ac:dyDescent="0.85">
       <c r="A38">
         <v>37</v>
       </c>
@@ -2931,7 +2521,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="39" spans="1:11" x14ac:dyDescent="0.7">
+    <row r="39" spans="1:11" x14ac:dyDescent="0.85">
       <c r="A39">
         <v>38</v>
       </c>
@@ -2966,7 +2556,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="40" spans="1:11" x14ac:dyDescent="0.7">
+    <row r="40" spans="1:11" x14ac:dyDescent="0.85">
       <c r="A40">
         <v>39</v>
       </c>
@@ -3001,7 +2591,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="41" spans="1:11" x14ac:dyDescent="0.7">
+    <row r="41" spans="1:11" x14ac:dyDescent="0.85">
       <c r="A41">
         <v>40</v>
       </c>
@@ -3036,7 +2626,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="42" spans="1:11" x14ac:dyDescent="0.7">
+    <row r="42" spans="1:11" x14ac:dyDescent="0.85">
       <c r="A42">
         <v>41</v>
       </c>
@@ -3071,7 +2661,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="43" spans="1:11" x14ac:dyDescent="0.7">
+    <row r="43" spans="1:11" x14ac:dyDescent="0.85">
       <c r="A43">
         <v>42</v>
       </c>
@@ -3106,7 +2696,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="44" spans="1:11" x14ac:dyDescent="0.7">
+    <row r="44" spans="1:11" x14ac:dyDescent="0.85">
       <c r="A44">
         <v>43</v>
       </c>
@@ -3141,7 +2731,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="45" spans="1:11" x14ac:dyDescent="0.7">
+    <row r="45" spans="1:11" x14ac:dyDescent="0.85">
       <c r="A45">
         <v>44</v>
       </c>
@@ -3176,7 +2766,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="46" spans="1:11" x14ac:dyDescent="0.7">
+    <row r="46" spans="1:11" x14ac:dyDescent="0.85">
       <c r="A46">
         <v>45</v>
       </c>
@@ -3211,7 +2801,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="47" spans="1:11" x14ac:dyDescent="0.7">
+    <row r="47" spans="1:11" x14ac:dyDescent="0.85">
       <c r="A47">
         <v>46</v>
       </c>
@@ -3246,7 +2836,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="48" spans="1:11" x14ac:dyDescent="0.7">
+    <row r="48" spans="1:11" x14ac:dyDescent="0.85">
       <c r="A48">
         <v>47</v>
       </c>
@@ -3281,7 +2871,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="49" spans="1:11" x14ac:dyDescent="0.7">
+    <row r="49" spans="1:11" x14ac:dyDescent="0.85">
       <c r="A49">
         <v>48</v>
       </c>
@@ -3316,7 +2906,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="50" spans="1:11" x14ac:dyDescent="0.7">
+    <row r="50" spans="1:11" x14ac:dyDescent="0.85">
       <c r="A50">
         <v>49</v>
       </c>
@@ -3351,7 +2941,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="51" spans="1:11" x14ac:dyDescent="0.7">
+    <row r="51" spans="1:11" x14ac:dyDescent="0.85">
       <c r="A51">
         <v>50</v>
       </c>
@@ -3386,7 +2976,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="52" spans="1:11" x14ac:dyDescent="0.7">
+    <row r="52" spans="1:11" x14ac:dyDescent="0.85">
       <c r="A52">
         <v>51</v>
       </c>
@@ -3421,7 +3011,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="53" spans="1:11" x14ac:dyDescent="0.7">
+    <row r="53" spans="1:11" x14ac:dyDescent="0.85">
       <c r="A53">
         <v>52</v>
       </c>
@@ -3456,7 +3046,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="54" spans="1:11" x14ac:dyDescent="0.7">
+    <row r="54" spans="1:11" x14ac:dyDescent="0.85">
       <c r="A54">
         <v>53</v>
       </c>
@@ -3491,7 +3081,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="55" spans="1:11" x14ac:dyDescent="0.7">
+    <row r="55" spans="1:11" x14ac:dyDescent="0.85">
       <c r="A55">
         <v>54</v>
       </c>
@@ -3526,7 +3116,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="56" spans="1:11" x14ac:dyDescent="0.7">
+    <row r="56" spans="1:11" x14ac:dyDescent="0.85">
       <c r="A56">
         <v>55</v>
       </c>
@@ -3561,7 +3151,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="57" spans="1:11" x14ac:dyDescent="0.7">
+    <row r="57" spans="1:11" x14ac:dyDescent="0.85">
       <c r="A57">
         <v>56</v>
       </c>
@@ -3596,7 +3186,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="58" spans="1:11" x14ac:dyDescent="0.7">
+    <row r="58" spans="1:11" x14ac:dyDescent="0.85">
       <c r="A58">
         <v>57</v>
       </c>
@@ -3631,7 +3221,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="59" spans="1:11" x14ac:dyDescent="0.7">
+    <row r="59" spans="1:11" x14ac:dyDescent="0.85">
       <c r="A59">
         <v>58</v>
       </c>
@@ -3666,7 +3256,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="60" spans="1:11" x14ac:dyDescent="0.7">
+    <row r="60" spans="1:11" x14ac:dyDescent="0.85">
       <c r="A60">
         <v>59</v>
       </c>
@@ -3701,7 +3291,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="61" spans="1:11" x14ac:dyDescent="0.7">
+    <row r="61" spans="1:11" x14ac:dyDescent="0.85">
       <c r="A61">
         <v>60</v>
       </c>
@@ -3736,7 +3326,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="62" spans="1:11" x14ac:dyDescent="0.7">
+    <row r="62" spans="1:11" x14ac:dyDescent="0.85">
       <c r="A62">
         <v>61</v>
       </c>
@@ -3771,7 +3361,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="63" spans="1:11" x14ac:dyDescent="0.7">
+    <row r="63" spans="1:11" x14ac:dyDescent="0.85">
       <c r="A63">
         <v>62</v>
       </c>
@@ -3806,7 +3396,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="64" spans="1:11" x14ac:dyDescent="0.7">
+    <row r="64" spans="1:11" x14ac:dyDescent="0.85">
       <c r="A64">
         <v>63</v>
       </c>
@@ -3841,7 +3431,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="65" spans="1:11" x14ac:dyDescent="0.7">
+    <row r="65" spans="1:11" x14ac:dyDescent="0.85">
       <c r="A65">
         <v>64</v>
       </c>
@@ -3876,7 +3466,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="66" spans="1:11" x14ac:dyDescent="0.7">
+    <row r="66" spans="1:11" x14ac:dyDescent="0.85">
       <c r="A66">
         <v>65</v>
       </c>
@@ -3911,7 +3501,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="67" spans="1:11" x14ac:dyDescent="0.7">
+    <row r="67" spans="1:11" x14ac:dyDescent="0.85">
       <c r="A67">
         <v>66</v>
       </c>
@@ -3946,7 +3536,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="68" spans="1:11" x14ac:dyDescent="0.7">
+    <row r="68" spans="1:11" x14ac:dyDescent="0.85">
       <c r="A68">
         <v>67</v>
       </c>
@@ -3981,7 +3571,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="69" spans="1:11" x14ac:dyDescent="0.7">
+    <row r="69" spans="1:11" x14ac:dyDescent="0.85">
       <c r="A69">
         <v>68</v>
       </c>
@@ -4016,7 +3606,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="70" spans="1:11" x14ac:dyDescent="0.7">
+    <row r="70" spans="1:11" x14ac:dyDescent="0.85">
       <c r="A70">
         <v>69</v>
       </c>
@@ -4051,7 +3641,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="71" spans="1:11" x14ac:dyDescent="0.7">
+    <row r="71" spans="1:11" x14ac:dyDescent="0.85">
       <c r="A71">
         <v>70</v>
       </c>
@@ -4086,7 +3676,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="72" spans="1:11" x14ac:dyDescent="0.7">
+    <row r="72" spans="1:11" x14ac:dyDescent="0.85">
       <c r="A72">
         <v>71</v>
       </c>
@@ -4121,7 +3711,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="73" spans="1:11" x14ac:dyDescent="0.7">
+    <row r="73" spans="1:11" x14ac:dyDescent="0.85">
       <c r="A73">
         <v>72</v>
       </c>
@@ -4156,7 +3746,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="74" spans="1:11" x14ac:dyDescent="0.7">
+    <row r="74" spans="1:11" x14ac:dyDescent="0.85">
       <c r="A74">
         <v>73</v>
       </c>
@@ -4191,7 +3781,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="75" spans="1:11" x14ac:dyDescent="0.7">
+    <row r="75" spans="1:11" x14ac:dyDescent="0.85">
       <c r="A75">
         <v>74</v>
       </c>
@@ -4226,7 +3816,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="76" spans="1:11" x14ac:dyDescent="0.7">
+    <row r="76" spans="1:11" x14ac:dyDescent="0.85">
       <c r="A76">
         <v>75</v>
       </c>
@@ -4261,7 +3851,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="77" spans="1:11" x14ac:dyDescent="0.7">
+    <row r="77" spans="1:11" x14ac:dyDescent="0.85">
       <c r="A77">
         <v>76</v>
       </c>
@@ -4296,7 +3886,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="78" spans="1:11" x14ac:dyDescent="0.7">
+    <row r="78" spans="1:11" x14ac:dyDescent="0.85">
       <c r="A78">
         <v>77</v>
       </c>
@@ -4331,7 +3921,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="79" spans="1:11" x14ac:dyDescent="0.7">
+    <row r="79" spans="1:11" x14ac:dyDescent="0.85">
       <c r="A79">
         <v>78</v>
       </c>
@@ -4366,7 +3956,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="80" spans="1:11" x14ac:dyDescent="0.7">
+    <row r="80" spans="1:11" x14ac:dyDescent="0.85">
       <c r="A80">
         <v>79</v>
       </c>
@@ -4401,7 +3991,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="81" spans="1:11" x14ac:dyDescent="0.7">
+    <row r="81" spans="1:11" x14ac:dyDescent="0.85">
       <c r="A81">
         <v>80</v>
       </c>
@@ -4436,7 +4026,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="82" spans="1:11" x14ac:dyDescent="0.7">
+    <row r="82" spans="1:11" x14ac:dyDescent="0.85">
       <c r="A82">
         <v>81</v>
       </c>
@@ -4471,7 +4061,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="83" spans="1:11" x14ac:dyDescent="0.7">
+    <row r="83" spans="1:11" x14ac:dyDescent="0.85">
       <c r="A83">
         <v>82</v>
       </c>
@@ -4506,7 +4096,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="84" spans="1:11" x14ac:dyDescent="0.7">
+    <row r="84" spans="1:11" x14ac:dyDescent="0.85">
       <c r="A84">
         <v>83</v>
       </c>
@@ -4541,7 +4131,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="85" spans="1:11" x14ac:dyDescent="0.7">
+    <row r="85" spans="1:11" x14ac:dyDescent="0.85">
       <c r="A85">
         <v>84</v>
       </c>
@@ -4576,7 +4166,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="86" spans="1:11" x14ac:dyDescent="0.7">
+    <row r="86" spans="1:11" x14ac:dyDescent="0.85">
       <c r="A86">
         <v>85</v>
       </c>
@@ -4611,7 +4201,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="87" spans="1:11" x14ac:dyDescent="0.7">
+    <row r="87" spans="1:11" x14ac:dyDescent="0.85">
       <c r="A87">
         <v>86</v>
       </c>
@@ -4646,7 +4236,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="88" spans="1:11" x14ac:dyDescent="0.7">
+    <row r="88" spans="1:11" x14ac:dyDescent="0.85">
       <c r="A88">
         <v>87</v>
       </c>
@@ -4681,7 +4271,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="89" spans="1:11" x14ac:dyDescent="0.7">
+    <row r="89" spans="1:11" x14ac:dyDescent="0.85">
       <c r="A89">
         <v>88</v>
       </c>
@@ -4716,7 +4306,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="90" spans="1:11" x14ac:dyDescent="0.7">
+    <row r="90" spans="1:11" x14ac:dyDescent="0.85">
       <c r="A90">
         <v>89</v>
       </c>
@@ -4751,7 +4341,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="91" spans="1:11" x14ac:dyDescent="0.7">
+    <row r="91" spans="1:11" x14ac:dyDescent="0.85">
       <c r="A91">
         <v>90</v>
       </c>
@@ -4786,7 +4376,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="92" spans="1:11" x14ac:dyDescent="0.7">
+    <row r="92" spans="1:11" x14ac:dyDescent="0.85">
       <c r="A92">
         <v>91</v>
       </c>
@@ -4821,7 +4411,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="93" spans="1:11" x14ac:dyDescent="0.7">
+    <row r="93" spans="1:11" x14ac:dyDescent="0.85">
       <c r="A93">
         <v>92</v>
       </c>
@@ -4856,7 +4446,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="94" spans="1:11" x14ac:dyDescent="0.7">
+    <row r="94" spans="1:11" x14ac:dyDescent="0.85">
       <c r="A94">
         <v>93</v>
       </c>
@@ -4891,7 +4481,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="95" spans="1:11" x14ac:dyDescent="0.7">
+    <row r="95" spans="1:11" x14ac:dyDescent="0.85">
       <c r="A95">
         <v>94</v>
       </c>
@@ -4926,7 +4516,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="96" spans="1:11" x14ac:dyDescent="0.7">
+    <row r="96" spans="1:11" x14ac:dyDescent="0.85">
       <c r="A96">
         <v>95</v>
       </c>
@@ -4961,7 +4551,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="97" spans="1:11" x14ac:dyDescent="0.7">
+    <row r="97" spans="1:11" x14ac:dyDescent="0.85">
       <c r="A97">
         <v>96</v>
       </c>
@@ -4996,7 +4586,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="98" spans="1:11" x14ac:dyDescent="0.7">
+    <row r="98" spans="1:11" x14ac:dyDescent="0.85">
       <c r="A98">
         <v>97</v>
       </c>
@@ -5031,7 +4621,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="99" spans="1:11" x14ac:dyDescent="0.7">
+    <row r="99" spans="1:11" x14ac:dyDescent="0.85">
       <c r="A99">
         <v>98</v>
       </c>
@@ -5066,7 +4656,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="100" spans="1:11" x14ac:dyDescent="0.7">
+    <row r="100" spans="1:11" x14ac:dyDescent="0.85">
       <c r="A100">
         <v>99</v>
       </c>
@@ -5101,7 +4691,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="101" spans="1:11" x14ac:dyDescent="0.7">
+    <row r="101" spans="1:11" x14ac:dyDescent="0.85">
       <c r="A101">
         <v>100</v>
       </c>
@@ -5136,7 +4726,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="102" spans="1:11" x14ac:dyDescent="0.7">
+    <row r="102" spans="1:11" x14ac:dyDescent="0.85">
       <c r="A102">
         <v>101</v>
       </c>
@@ -5171,7 +4761,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="103" spans="1:11" x14ac:dyDescent="0.7">
+    <row r="103" spans="1:11" x14ac:dyDescent="0.85">
       <c r="A103">
         <v>102</v>
       </c>
@@ -5206,7 +4796,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="104" spans="1:11" x14ac:dyDescent="0.7">
+    <row r="104" spans="1:11" x14ac:dyDescent="0.85">
       <c r="A104">
         <v>103</v>
       </c>
@@ -5241,7 +4831,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="105" spans="1:11" x14ac:dyDescent="0.7">
+    <row r="105" spans="1:11" x14ac:dyDescent="0.85">
       <c r="A105">
         <v>104</v>
       </c>
@@ -5276,7 +4866,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="106" spans="1:11" x14ac:dyDescent="0.7">
+    <row r="106" spans="1:11" x14ac:dyDescent="0.85">
       <c r="A106">
         <v>105</v>
       </c>
@@ -5311,7 +4901,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="107" spans="1:11" x14ac:dyDescent="0.7">
+    <row r="107" spans="1:11" x14ac:dyDescent="0.85">
       <c r="A107">
         <v>106</v>
       </c>
@@ -5346,7 +4936,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="108" spans="1:11" x14ac:dyDescent="0.7">
+    <row r="108" spans="1:11" x14ac:dyDescent="0.85">
       <c r="A108">
         <v>107</v>
       </c>
@@ -5381,7 +4971,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="109" spans="1:11" x14ac:dyDescent="0.7">
+    <row r="109" spans="1:11" x14ac:dyDescent="0.85">
       <c r="A109">
         <v>108</v>
       </c>
@@ -5416,7 +5006,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="110" spans="1:11" x14ac:dyDescent="0.7">
+    <row r="110" spans="1:11" x14ac:dyDescent="0.85">
       <c r="A110">
         <v>109</v>
       </c>
@@ -5451,7 +5041,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="111" spans="1:11" x14ac:dyDescent="0.7">
+    <row r="111" spans="1:11" x14ac:dyDescent="0.85">
       <c r="A111">
         <v>110</v>
       </c>
@@ -5486,7 +5076,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="112" spans="1:11" x14ac:dyDescent="0.7">
+    <row r="112" spans="1:11" x14ac:dyDescent="0.85">
       <c r="A112">
         <v>111</v>
       </c>
@@ -5521,7 +5111,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="113" spans="1:11" x14ac:dyDescent="0.7">
+    <row r="113" spans="1:11" x14ac:dyDescent="0.85">
       <c r="A113">
         <v>112</v>
       </c>
@@ -5556,7 +5146,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="114" spans="1:11" x14ac:dyDescent="0.7">
+    <row r="114" spans="1:11" x14ac:dyDescent="0.85">
       <c r="A114">
         <v>113</v>
       </c>
@@ -5591,7 +5181,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="115" spans="1:11" x14ac:dyDescent="0.7">
+    <row r="115" spans="1:11" x14ac:dyDescent="0.85">
       <c r="A115">
         <v>114</v>
       </c>
@@ -5626,7 +5216,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="116" spans="1:11" x14ac:dyDescent="0.7">
+    <row r="116" spans="1:11" x14ac:dyDescent="0.85">
       <c r="A116">
         <v>115</v>
       </c>
@@ -5661,7 +5251,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="117" spans="1:11" x14ac:dyDescent="0.7">
+    <row r="117" spans="1:11" x14ac:dyDescent="0.85">
       <c r="A117">
         <v>116</v>
       </c>
@@ -5696,7 +5286,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="118" spans="1:11" x14ac:dyDescent="0.7">
+    <row r="118" spans="1:11" x14ac:dyDescent="0.85">
       <c r="A118">
         <v>117</v>
       </c>
@@ -5731,7 +5321,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="119" spans="1:11" x14ac:dyDescent="0.7">
+    <row r="119" spans="1:11" x14ac:dyDescent="0.85">
       <c r="A119">
         <v>118</v>
       </c>
@@ -5766,7 +5356,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="120" spans="1:11" x14ac:dyDescent="0.7">
+    <row r="120" spans="1:11" x14ac:dyDescent="0.85">
       <c r="A120">
         <v>119</v>
       </c>
@@ -5801,7 +5391,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="121" spans="1:11" x14ac:dyDescent="0.7">
+    <row r="121" spans="1:11" x14ac:dyDescent="0.85">
       <c r="A121">
         <v>120</v>
       </c>
@@ -5836,7 +5426,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="122" spans="1:11" x14ac:dyDescent="0.7">
+    <row r="122" spans="1:11" x14ac:dyDescent="0.85">
       <c r="A122">
         <v>121</v>
       </c>
@@ -5871,7 +5461,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="123" spans="1:11" x14ac:dyDescent="0.7">
+    <row r="123" spans="1:11" x14ac:dyDescent="0.85">
       <c r="A123">
         <v>122</v>
       </c>
@@ -5906,7 +5496,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="124" spans="1:11" x14ac:dyDescent="0.7">
+    <row r="124" spans="1:11" x14ac:dyDescent="0.85">
       <c r="A124">
         <v>123</v>
       </c>
@@ -5941,7 +5531,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="125" spans="1:11" x14ac:dyDescent="0.7">
+    <row r="125" spans="1:11" x14ac:dyDescent="0.85">
       <c r="A125">
         <v>124</v>
       </c>
@@ -5976,7 +5566,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="126" spans="1:11" x14ac:dyDescent="0.7">
+    <row r="126" spans="1:11" x14ac:dyDescent="0.85">
       <c r="A126">
         <v>125</v>
       </c>
@@ -6011,7 +5601,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="127" spans="1:11" x14ac:dyDescent="0.7">
+    <row r="127" spans="1:11" x14ac:dyDescent="0.85">
       <c r="A127">
         <v>126</v>
       </c>
@@ -6046,7 +5636,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="128" spans="1:11" x14ac:dyDescent="0.7">
+    <row r="128" spans="1:11" x14ac:dyDescent="0.85">
       <c r="A128">
         <v>127</v>
       </c>
@@ -6081,7 +5671,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="129" spans="1:11" x14ac:dyDescent="0.7">
+    <row r="129" spans="1:11" x14ac:dyDescent="0.85">
       <c r="A129">
         <v>128</v>
       </c>
@@ -6116,7 +5706,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="130" spans="1:11" x14ac:dyDescent="0.7">
+    <row r="130" spans="1:11" x14ac:dyDescent="0.85">
       <c r="A130">
         <v>129</v>
       </c>
@@ -6151,7 +5741,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="131" spans="1:11" x14ac:dyDescent="0.7">
+    <row r="131" spans="1:11" x14ac:dyDescent="0.85">
       <c r="A131">
         <v>130</v>
       </c>
@@ -6186,7 +5776,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="132" spans="1:11" x14ac:dyDescent="0.7">
+    <row r="132" spans="1:11" x14ac:dyDescent="0.85">
       <c r="A132">
         <v>131</v>
       </c>
@@ -6221,7 +5811,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="133" spans="1:11" x14ac:dyDescent="0.7">
+    <row r="133" spans="1:11" x14ac:dyDescent="0.85">
       <c r="A133">
         <v>132</v>
       </c>
@@ -6256,7 +5846,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="134" spans="1:11" x14ac:dyDescent="0.7">
+    <row r="134" spans="1:11" x14ac:dyDescent="0.85">
       <c r="A134">
         <v>133</v>
       </c>
@@ -6291,7 +5881,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="135" spans="1:11" x14ac:dyDescent="0.7">
+    <row r="135" spans="1:11" x14ac:dyDescent="0.85">
       <c r="A135">
         <v>134</v>
       </c>
@@ -6326,7 +5916,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="136" spans="1:11" x14ac:dyDescent="0.7">
+    <row r="136" spans="1:11" x14ac:dyDescent="0.85">
       <c r="A136">
         <v>135</v>
       </c>
@@ -6361,7 +5951,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="137" spans="1:11" x14ac:dyDescent="0.7">
+    <row r="137" spans="1:11" x14ac:dyDescent="0.85">
       <c r="A137">
         <v>136</v>
       </c>
@@ -6396,7 +5986,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="138" spans="1:11" x14ac:dyDescent="0.7">
+    <row r="138" spans="1:11" x14ac:dyDescent="0.85">
       <c r="A138">
         <v>137</v>
       </c>
@@ -6431,7 +6021,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="139" spans="1:11" x14ac:dyDescent="0.7">
+    <row r="139" spans="1:11" x14ac:dyDescent="0.85">
       <c r="A139">
         <v>138</v>
       </c>
@@ -6466,7 +6056,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="140" spans="1:11" x14ac:dyDescent="0.7">
+    <row r="140" spans="1:11" x14ac:dyDescent="0.85">
       <c r="A140">
         <v>139</v>
       </c>
@@ -6501,7 +6091,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="141" spans="1:11" x14ac:dyDescent="0.7">
+    <row r="141" spans="1:11" x14ac:dyDescent="0.85">
       <c r="A141">
         <v>140</v>
       </c>
@@ -6536,7 +6126,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="142" spans="1:11" x14ac:dyDescent="0.7">
+    <row r="142" spans="1:11" x14ac:dyDescent="0.85">
       <c r="A142">
         <v>141</v>
       </c>
@@ -6571,7 +6161,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="143" spans="1:11" x14ac:dyDescent="0.7">
+    <row r="143" spans="1:11" x14ac:dyDescent="0.85">
       <c r="A143">
         <v>142</v>
       </c>
@@ -6606,7 +6196,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="144" spans="1:11" x14ac:dyDescent="0.7">
+    <row r="144" spans="1:11" x14ac:dyDescent="0.85">
       <c r="A144">
         <v>143</v>
       </c>
@@ -6641,7 +6231,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="145" spans="1:11" x14ac:dyDescent="0.7">
+    <row r="145" spans="1:11" x14ac:dyDescent="0.85">
       <c r="A145">
         <v>144</v>
       </c>
@@ -6676,7 +6266,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="146" spans="1:11" x14ac:dyDescent="0.7">
+    <row r="146" spans="1:11" x14ac:dyDescent="0.85">
       <c r="A146">
         <v>145</v>
       </c>
@@ -6711,7 +6301,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="147" spans="1:11" x14ac:dyDescent="0.7">
+    <row r="147" spans="1:11" x14ac:dyDescent="0.85">
       <c r="A147">
         <v>146</v>
       </c>
@@ -6746,7 +6336,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="148" spans="1:11" x14ac:dyDescent="0.7">
+    <row r="148" spans="1:11" x14ac:dyDescent="0.85">
       <c r="A148">
         <v>147</v>
       </c>
@@ -6781,7 +6371,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="149" spans="1:11" x14ac:dyDescent="0.7">
+    <row r="149" spans="1:11" x14ac:dyDescent="0.85">
       <c r="A149">
         <v>148</v>
       </c>
@@ -6816,7 +6406,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="150" spans="1:11" x14ac:dyDescent="0.7">
+    <row r="150" spans="1:11" x14ac:dyDescent="0.85">
       <c r="A150">
         <v>149</v>
       </c>
@@ -6851,7 +6441,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="151" spans="1:11" x14ac:dyDescent="0.7">
+    <row r="151" spans="1:11" x14ac:dyDescent="0.85">
       <c r="A151">
         <v>150</v>
       </c>
@@ -6886,7 +6476,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="152" spans="1:11" x14ac:dyDescent="0.7">
+    <row r="152" spans="1:11" x14ac:dyDescent="0.85">
       <c r="A152">
         <v>151</v>
       </c>
@@ -6921,7 +6511,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="153" spans="1:11" x14ac:dyDescent="0.7">
+    <row r="153" spans="1:11" x14ac:dyDescent="0.85">
       <c r="A153">
         <v>152</v>
       </c>
@@ -6956,7 +6546,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="154" spans="1:11" x14ac:dyDescent="0.7">
+    <row r="154" spans="1:11" x14ac:dyDescent="0.85">
       <c r="A154">
         <v>153</v>
       </c>
@@ -6991,7 +6581,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="155" spans="1:11" x14ac:dyDescent="0.7">
+    <row r="155" spans="1:11" x14ac:dyDescent="0.85">
       <c r="A155">
         <v>154</v>
       </c>
@@ -7026,7 +6616,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="156" spans="1:11" x14ac:dyDescent="0.7">
+    <row r="156" spans="1:11" x14ac:dyDescent="0.85">
       <c r="A156">
         <v>155</v>
       </c>
@@ -7061,7 +6651,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="157" spans="1:11" x14ac:dyDescent="0.7">
+    <row r="157" spans="1:11" x14ac:dyDescent="0.85">
       <c r="A157">
         <v>156</v>
       </c>
@@ -7096,7 +6686,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="158" spans="1:11" x14ac:dyDescent="0.7">
+    <row r="158" spans="1:11" x14ac:dyDescent="0.85">
       <c r="A158">
         <v>157</v>
       </c>
@@ -7131,7 +6721,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="159" spans="1:11" x14ac:dyDescent="0.7">
+    <row r="159" spans="1:11" x14ac:dyDescent="0.85">
       <c r="A159">
         <v>158</v>
       </c>
@@ -7166,7 +6756,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="160" spans="1:11" x14ac:dyDescent="0.7">
+    <row r="160" spans="1:11" x14ac:dyDescent="0.85">
       <c r="A160">
         <v>159</v>
       </c>
@@ -7201,7 +6791,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="161" spans="1:11" x14ac:dyDescent="0.7">
+    <row r="161" spans="1:11" x14ac:dyDescent="0.85">
       <c r="A161">
         <v>160</v>
       </c>
@@ -7236,7 +6826,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="162" spans="1:11" x14ac:dyDescent="0.7">
+    <row r="162" spans="1:11" x14ac:dyDescent="0.85">
       <c r="A162">
         <v>161</v>
       </c>
@@ -7271,7 +6861,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="163" spans="1:11" x14ac:dyDescent="0.7">
+    <row r="163" spans="1:11" x14ac:dyDescent="0.85">
       <c r="A163">
         <v>162</v>
       </c>
@@ -7306,7 +6896,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="164" spans="1:11" x14ac:dyDescent="0.7">
+    <row r="164" spans="1:11" x14ac:dyDescent="0.85">
       <c r="A164">
         <v>163</v>
       </c>
@@ -7341,7 +6931,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="165" spans="1:11" x14ac:dyDescent="0.7">
+    <row r="165" spans="1:11" x14ac:dyDescent="0.85">
       <c r="A165">
         <v>164</v>
       </c>
@@ -7376,7 +6966,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="166" spans="1:11" x14ac:dyDescent="0.7">
+    <row r="166" spans="1:11" x14ac:dyDescent="0.85">
       <c r="A166">
         <v>165</v>
       </c>
@@ -7411,7 +7001,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="167" spans="1:11" x14ac:dyDescent="0.7">
+    <row r="167" spans="1:11" x14ac:dyDescent="0.85">
       <c r="A167">
         <v>166</v>
       </c>
@@ -7446,7 +7036,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="168" spans="1:11" x14ac:dyDescent="0.7">
+    <row r="168" spans="1:11" x14ac:dyDescent="0.85">
       <c r="A168">
         <v>167</v>
       </c>
@@ -7481,7 +7071,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="169" spans="1:11" x14ac:dyDescent="0.7">
+    <row r="169" spans="1:11" x14ac:dyDescent="0.85">
       <c r="A169">
         <v>168</v>
       </c>
@@ -7516,7 +7106,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="170" spans="1:11" x14ac:dyDescent="0.7">
+    <row r="170" spans="1:11" x14ac:dyDescent="0.85">
       <c r="A170">
         <v>169</v>
       </c>
@@ -7551,7 +7141,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="171" spans="1:11" x14ac:dyDescent="0.7">
+    <row r="171" spans="1:11" x14ac:dyDescent="0.85">
       <c r="A171">
         <v>170</v>
       </c>
@@ -7586,7 +7176,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="172" spans="1:11" x14ac:dyDescent="0.7">
+    <row r="172" spans="1:11" x14ac:dyDescent="0.85">
       <c r="A172">
         <v>171</v>
       </c>
@@ -7621,7 +7211,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="173" spans="1:11" x14ac:dyDescent="0.7">
+    <row r="173" spans="1:11" x14ac:dyDescent="0.85">
       <c r="A173">
         <v>172</v>
       </c>
@@ -7656,7 +7246,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="174" spans="1:11" x14ac:dyDescent="0.7">
+    <row r="174" spans="1:11" x14ac:dyDescent="0.85">
       <c r="A174">
         <v>173</v>
       </c>
@@ -7691,7 +7281,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="175" spans="1:11" x14ac:dyDescent="0.7">
+    <row r="175" spans="1:11" x14ac:dyDescent="0.85">
       <c r="A175">
         <v>174</v>
       </c>
@@ -7726,7 +7316,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="176" spans="1:11" x14ac:dyDescent="0.7">
+    <row r="176" spans="1:11" x14ac:dyDescent="0.85">
       <c r="A176">
         <v>175</v>
       </c>
@@ -7761,7 +7351,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="177" spans="1:11" x14ac:dyDescent="0.7">
+    <row r="177" spans="1:11" x14ac:dyDescent="0.85">
       <c r="A177">
         <v>176</v>
       </c>
@@ -7796,7 +7386,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="178" spans="1:11" x14ac:dyDescent="0.7">
+    <row r="178" spans="1:11" x14ac:dyDescent="0.85">
       <c r="A178">
         <v>177</v>
       </c>
@@ -7831,7 +7421,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="179" spans="1:11" x14ac:dyDescent="0.7">
+    <row r="179" spans="1:11" x14ac:dyDescent="0.85">
       <c r="A179">
         <v>178</v>
       </c>
@@ -7866,7 +7456,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="180" spans="1:11" x14ac:dyDescent="0.7">
+    <row r="180" spans="1:11" x14ac:dyDescent="0.85">
       <c r="A180">
         <v>179</v>
       </c>
@@ -7901,7 +7491,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="181" spans="1:11" x14ac:dyDescent="0.7">
+    <row r="181" spans="1:11" x14ac:dyDescent="0.85">
       <c r="A181">
         <v>180</v>
       </c>
@@ -7936,7 +7526,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="182" spans="1:11" x14ac:dyDescent="0.7">
+    <row r="182" spans="1:11" x14ac:dyDescent="0.85">
       <c r="A182">
         <v>181</v>
       </c>
@@ -7971,7 +7561,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="183" spans="1:11" x14ac:dyDescent="0.7">
+    <row r="183" spans="1:11" x14ac:dyDescent="0.85">
       <c r="A183">
         <v>182</v>
       </c>
@@ -8006,7 +7596,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="184" spans="1:11" x14ac:dyDescent="0.7">
+    <row r="184" spans="1:11" x14ac:dyDescent="0.85">
       <c r="A184">
         <v>183</v>
       </c>
@@ -8041,7 +7631,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="185" spans="1:11" x14ac:dyDescent="0.7">
+    <row r="185" spans="1:11" x14ac:dyDescent="0.85">
       <c r="A185">
         <v>184</v>
       </c>
@@ -8076,7 +7666,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="186" spans="1:11" x14ac:dyDescent="0.7">
+    <row r="186" spans="1:11" x14ac:dyDescent="0.85">
       <c r="A186">
         <v>185</v>
       </c>
@@ -8111,7 +7701,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="187" spans="1:11" x14ac:dyDescent="0.7">
+    <row r="187" spans="1:11" x14ac:dyDescent="0.85">
       <c r="A187">
         <v>186</v>
       </c>
@@ -8146,7 +7736,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="188" spans="1:11" x14ac:dyDescent="0.7">
+    <row r="188" spans="1:11" x14ac:dyDescent="0.85">
       <c r="A188">
         <v>187</v>
       </c>
@@ -8181,7 +7771,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="189" spans="1:11" x14ac:dyDescent="0.7">
+    <row r="189" spans="1:11" x14ac:dyDescent="0.85">
       <c r="A189">
         <v>188</v>
       </c>
@@ -8216,7 +7806,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="190" spans="1:11" x14ac:dyDescent="0.7">
+    <row r="190" spans="1:11" x14ac:dyDescent="0.85">
       <c r="A190">
         <v>189</v>
       </c>
@@ -8251,7 +7841,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="191" spans="1:11" x14ac:dyDescent="0.7">
+    <row r="191" spans="1:11" x14ac:dyDescent="0.85">
       <c r="A191">
         <v>190</v>
       </c>
@@ -8286,7 +7876,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="192" spans="1:11" x14ac:dyDescent="0.7">
+    <row r="192" spans="1:11" x14ac:dyDescent="0.85">
       <c r="A192">
         <v>191</v>
       </c>
@@ -8321,7 +7911,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="193" spans="1:11" x14ac:dyDescent="0.7">
+    <row r="193" spans="1:11" x14ac:dyDescent="0.85">
       <c r="A193">
         <v>192</v>
       </c>
@@ -8356,7 +7946,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="194" spans="1:11" x14ac:dyDescent="0.7">
+    <row r="194" spans="1:11" x14ac:dyDescent="0.85">
       <c r="A194">
         <v>193</v>
       </c>
@@ -8391,7 +7981,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="195" spans="1:11" x14ac:dyDescent="0.7">
+    <row r="195" spans="1:11" x14ac:dyDescent="0.85">
       <c r="A195">
         <v>194</v>
       </c>
@@ -8426,7 +8016,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="196" spans="1:11" x14ac:dyDescent="0.7">
+    <row r="196" spans="1:11" x14ac:dyDescent="0.85">
       <c r="A196">
         <v>195</v>
       </c>
@@ -8461,7 +8051,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="197" spans="1:11" x14ac:dyDescent="0.7">
+    <row r="197" spans="1:11" x14ac:dyDescent="0.85">
       <c r="A197">
         <v>196</v>
       </c>
@@ -8496,7 +8086,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="198" spans="1:11" x14ac:dyDescent="0.7">
+    <row r="198" spans="1:11" x14ac:dyDescent="0.85">
       <c r="A198">
         <v>197</v>
       </c>
@@ -8531,7 +8121,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="199" spans="1:11" x14ac:dyDescent="0.7">
+    <row r="199" spans="1:11" x14ac:dyDescent="0.85">
       <c r="A199">
         <v>198</v>
       </c>
@@ -8566,7 +8156,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="200" spans="1:11" x14ac:dyDescent="0.7">
+    <row r="200" spans="1:11" x14ac:dyDescent="0.85">
       <c r="A200">
         <v>199</v>
       </c>
@@ -8601,7 +8191,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="201" spans="1:11" x14ac:dyDescent="0.7">
+    <row r="201" spans="1:11" x14ac:dyDescent="0.85">
       <c r="A201">
         <v>200</v>
       </c>
@@ -8636,7 +8226,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="202" spans="1:11" x14ac:dyDescent="0.7">
+    <row r="202" spans="1:11" x14ac:dyDescent="0.85">
       <c r="A202">
         <v>201</v>
       </c>
@@ -8671,7 +8261,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="203" spans="1:11" x14ac:dyDescent="0.7">
+    <row r="203" spans="1:11" x14ac:dyDescent="0.85">
       <c r="A203">
         <v>202</v>
       </c>
@@ -8706,7 +8296,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="204" spans="1:11" x14ac:dyDescent="0.7">
+    <row r="204" spans="1:11" x14ac:dyDescent="0.85">
       <c r="A204">
         <v>203</v>
       </c>
@@ -8741,7 +8331,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="205" spans="1:11" x14ac:dyDescent="0.7">
+    <row r="205" spans="1:11" x14ac:dyDescent="0.85">
       <c r="A205">
         <v>204</v>
       </c>
@@ -8776,7 +8366,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="206" spans="1:11" x14ac:dyDescent="0.7">
+    <row r="206" spans="1:11" x14ac:dyDescent="0.85">
       <c r="A206">
         <v>205</v>
       </c>
@@ -8811,7 +8401,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="207" spans="1:11" x14ac:dyDescent="0.7">
+    <row r="207" spans="1:11" x14ac:dyDescent="0.85">
       <c r="A207">
         <v>206</v>
       </c>
@@ -8846,7 +8436,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="208" spans="1:11" x14ac:dyDescent="0.7">
+    <row r="208" spans="1:11" x14ac:dyDescent="0.85">
       <c r="A208">
         <v>207</v>
       </c>
@@ -8881,7 +8471,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="209" spans="1:11" x14ac:dyDescent="0.7">
+    <row r="209" spans="1:11" x14ac:dyDescent="0.85">
       <c r="A209">
         <v>208</v>
       </c>
@@ -8916,7 +8506,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="210" spans="1:11" x14ac:dyDescent="0.7">
+    <row r="210" spans="1:11" x14ac:dyDescent="0.85">
       <c r="A210">
         <v>209</v>
       </c>
@@ -8951,7 +8541,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="211" spans="1:11" x14ac:dyDescent="0.7">
+    <row r="211" spans="1:11" x14ac:dyDescent="0.85">
       <c r="A211">
         <v>210</v>
       </c>
@@ -8986,7 +8576,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="212" spans="1:11" x14ac:dyDescent="0.7">
+    <row r="212" spans="1:11" x14ac:dyDescent="0.85">
       <c r="A212">
         <v>211</v>
       </c>
@@ -9021,7 +8611,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="213" spans="1:11" x14ac:dyDescent="0.7">
+    <row r="213" spans="1:11" x14ac:dyDescent="0.85">
       <c r="A213">
         <v>212</v>
       </c>
@@ -9056,7 +8646,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="214" spans="1:11" x14ac:dyDescent="0.7">
+    <row r="214" spans="1:11" x14ac:dyDescent="0.85">
       <c r="A214">
         <v>213</v>
       </c>
@@ -9091,7 +8681,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="215" spans="1:11" x14ac:dyDescent="0.7">
+    <row r="215" spans="1:11" x14ac:dyDescent="0.85">
       <c r="A215">
         <v>214</v>
       </c>
@@ -9126,7 +8716,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="216" spans="1:11" x14ac:dyDescent="0.7">
+    <row r="216" spans="1:11" x14ac:dyDescent="0.85">
       <c r="A216">
         <v>215</v>
       </c>
@@ -9161,7 +8751,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="217" spans="1:11" x14ac:dyDescent="0.7">
+    <row r="217" spans="1:11" x14ac:dyDescent="0.85">
       <c r="A217">
         <v>216</v>
       </c>
@@ -9196,7 +8786,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="218" spans="1:11" x14ac:dyDescent="0.7">
+    <row r="218" spans="1:11" x14ac:dyDescent="0.85">
       <c r="A218">
         <v>217</v>
       </c>
@@ -9231,7 +8821,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="219" spans="1:11" x14ac:dyDescent="0.7">
+    <row r="219" spans="1:11" x14ac:dyDescent="0.85">
       <c r="A219">
         <v>218</v>
       </c>
@@ -9266,7 +8856,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="220" spans="1:11" x14ac:dyDescent="0.7">
+    <row r="220" spans="1:11" x14ac:dyDescent="0.85">
       <c r="A220">
         <v>219</v>
       </c>
@@ -9301,7 +8891,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="221" spans="1:11" x14ac:dyDescent="0.7">
+    <row r="221" spans="1:11" x14ac:dyDescent="0.85">
       <c r="A221">
         <v>220</v>
       </c>
@@ -9336,7 +8926,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="222" spans="1:11" x14ac:dyDescent="0.7">
+    <row r="222" spans="1:11" x14ac:dyDescent="0.85">
       <c r="A222">
         <v>221</v>
       </c>
@@ -9371,7 +8961,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="223" spans="1:11" x14ac:dyDescent="0.7">
+    <row r="223" spans="1:11" x14ac:dyDescent="0.85">
       <c r="A223">
         <v>222</v>
       </c>
@@ -9406,7 +8996,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="224" spans="1:11" x14ac:dyDescent="0.7">
+    <row r="224" spans="1:11" x14ac:dyDescent="0.85">
       <c r="A224">
         <v>223</v>
       </c>
@@ -9441,7 +9031,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="225" spans="1:11" x14ac:dyDescent="0.7">
+    <row r="225" spans="1:11" x14ac:dyDescent="0.85">
       <c r="A225">
         <v>224</v>
       </c>
@@ -9476,7 +9066,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="226" spans="1:11" x14ac:dyDescent="0.7">
+    <row r="226" spans="1:11" x14ac:dyDescent="0.85">
       <c r="A226">
         <v>225</v>
       </c>
@@ -9511,7 +9101,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="227" spans="1:11" x14ac:dyDescent="0.7">
+    <row r="227" spans="1:11" x14ac:dyDescent="0.85">
       <c r="A227">
         <v>226</v>
       </c>
@@ -9546,7 +9136,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="228" spans="1:11" x14ac:dyDescent="0.7">
+    <row r="228" spans="1:11" x14ac:dyDescent="0.85">
       <c r="A228">
         <v>227</v>
       </c>
@@ -9581,7 +9171,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="229" spans="1:11" x14ac:dyDescent="0.7">
+    <row r="229" spans="1:11" x14ac:dyDescent="0.85">
       <c r="A229">
         <v>228</v>
       </c>
@@ -9616,7 +9206,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="230" spans="1:11" x14ac:dyDescent="0.7">
+    <row r="230" spans="1:11" x14ac:dyDescent="0.85">
       <c r="A230">
         <v>229</v>
       </c>
@@ -9651,7 +9241,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="231" spans="1:11" x14ac:dyDescent="0.7">
+    <row r="231" spans="1:11" x14ac:dyDescent="0.85">
       <c r="A231">
         <v>230</v>
       </c>
@@ -9686,7 +9276,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="232" spans="1:11" x14ac:dyDescent="0.7">
+    <row r="232" spans="1:11" x14ac:dyDescent="0.85">
       <c r="A232">
         <v>231</v>
       </c>
@@ -9721,7 +9311,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="233" spans="1:11" x14ac:dyDescent="0.7">
+    <row r="233" spans="1:11" x14ac:dyDescent="0.85">
       <c r="A233">
         <v>232</v>
       </c>
@@ -9756,7 +9346,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="234" spans="1:11" x14ac:dyDescent="0.7">
+    <row r="234" spans="1:11" x14ac:dyDescent="0.85">
       <c r="A234">
         <v>233</v>
       </c>
@@ -9791,7 +9381,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="235" spans="1:11" x14ac:dyDescent="0.7">
+    <row r="235" spans="1:11" x14ac:dyDescent="0.85">
       <c r="A235">
         <v>234</v>
       </c>
@@ -9826,7 +9416,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="236" spans="1:11" x14ac:dyDescent="0.7">
+    <row r="236" spans="1:11" x14ac:dyDescent="0.85">
       <c r="A236">
         <v>235</v>
       </c>
@@ -9861,7 +9451,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="237" spans="1:11" x14ac:dyDescent="0.7">
+    <row r="237" spans="1:11" x14ac:dyDescent="0.85">
       <c r="A237">
         <v>236</v>
       </c>
@@ -9896,7 +9486,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="238" spans="1:11" x14ac:dyDescent="0.7">
+    <row r="238" spans="1:11" x14ac:dyDescent="0.85">
       <c r="A238">
         <v>237</v>
       </c>
@@ -9931,7 +9521,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="239" spans="1:11" x14ac:dyDescent="0.7">
+    <row r="239" spans="1:11" x14ac:dyDescent="0.85">
       <c r="A239">
         <v>238</v>
       </c>
@@ -9966,7 +9556,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="240" spans="1:11" x14ac:dyDescent="0.7">
+    <row r="240" spans="1:11" x14ac:dyDescent="0.85">
       <c r="A240">
         <v>239</v>
       </c>
@@ -10001,7 +9591,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="241" spans="1:11" x14ac:dyDescent="0.7">
+    <row r="241" spans="1:11" x14ac:dyDescent="0.85">
       <c r="A241">
         <v>240</v>
       </c>
@@ -10036,7 +9626,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="242" spans="1:11" x14ac:dyDescent="0.7">
+    <row r="242" spans="1:11" x14ac:dyDescent="0.85">
       <c r="A242">
         <v>241</v>
       </c>
@@ -10071,7 +9661,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="243" spans="1:11" x14ac:dyDescent="0.7">
+    <row r="243" spans="1:11" x14ac:dyDescent="0.85">
       <c r="A243">
         <v>242</v>
       </c>
@@ -10106,7 +9696,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="244" spans="1:11" x14ac:dyDescent="0.7">
+    <row r="244" spans="1:11" x14ac:dyDescent="0.85">
       <c r="A244">
         <v>243</v>
       </c>
@@ -10141,7 +9731,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="245" spans="1:11" x14ac:dyDescent="0.7">
+    <row r="245" spans="1:11" x14ac:dyDescent="0.85">
       <c r="A245">
         <v>244</v>
       </c>
@@ -10176,7 +9766,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="246" spans="1:11" x14ac:dyDescent="0.7">
+    <row r="246" spans="1:11" x14ac:dyDescent="0.85">
       <c r="A246">
         <v>245</v>
       </c>
@@ -10211,7 +9801,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="247" spans="1:11" x14ac:dyDescent="0.7">
+    <row r="247" spans="1:11" x14ac:dyDescent="0.85">
       <c r="A247">
         <v>246</v>
       </c>
@@ -10246,7 +9836,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="248" spans="1:11" x14ac:dyDescent="0.7">
+    <row r="248" spans="1:11" x14ac:dyDescent="0.85">
       <c r="A248">
         <v>247</v>
       </c>
@@ -10281,7 +9871,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="249" spans="1:11" x14ac:dyDescent="0.7">
+    <row r="249" spans="1:11" x14ac:dyDescent="0.85">
       <c r="A249">
         <v>248</v>
       </c>
@@ -10316,7 +9906,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="250" spans="1:11" x14ac:dyDescent="0.7">
+    <row r="250" spans="1:11" x14ac:dyDescent="0.85">
       <c r="A250">
         <v>249</v>
       </c>
@@ -10351,7 +9941,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="251" spans="1:11" x14ac:dyDescent="0.7">
+    <row r="251" spans="1:11" x14ac:dyDescent="0.85">
       <c r="A251">
         <v>250</v>
       </c>
@@ -10386,7 +9976,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="252" spans="1:11" x14ac:dyDescent="0.7">
+    <row r="252" spans="1:11" x14ac:dyDescent="0.85">
       <c r="A252">
         <v>251</v>
       </c>
@@ -10421,7 +10011,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="253" spans="1:11" x14ac:dyDescent="0.7">
+    <row r="253" spans="1:11" x14ac:dyDescent="0.85">
       <c r="A253">
         <v>252</v>
       </c>
@@ -10456,7 +10046,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="254" spans="1:11" x14ac:dyDescent="0.7">
+    <row r="254" spans="1:11" x14ac:dyDescent="0.85">
       <c r="A254">
         <v>253</v>
       </c>
@@ -10491,7 +10081,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="255" spans="1:11" x14ac:dyDescent="0.7">
+    <row r="255" spans="1:11" x14ac:dyDescent="0.85">
       <c r="A255">
         <v>254</v>
       </c>
@@ -10526,7 +10116,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="256" spans="1:11" x14ac:dyDescent="0.7">
+    <row r="256" spans="1:11" x14ac:dyDescent="0.85">
       <c r="A256">
         <v>255</v>
       </c>
@@ -10561,7 +10151,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="257" spans="1:11" x14ac:dyDescent="0.7">
+    <row r="257" spans="1:11" x14ac:dyDescent="0.85">
       <c r="A257">
         <v>256</v>
       </c>
@@ -10596,7 +10186,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="258" spans="1:11" x14ac:dyDescent="0.7">
+    <row r="258" spans="1:11" x14ac:dyDescent="0.85">
       <c r="A258">
         <v>257</v>
       </c>
@@ -10631,7 +10221,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="259" spans="1:11" x14ac:dyDescent="0.7">
+    <row r="259" spans="1:11" x14ac:dyDescent="0.85">
       <c r="A259">
         <v>258</v>
       </c>
@@ -10666,7 +10256,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="260" spans="1:11" x14ac:dyDescent="0.7">
+    <row r="260" spans="1:11" x14ac:dyDescent="0.85">
       <c r="A260">
         <v>259</v>
       </c>
@@ -10701,7 +10291,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="261" spans="1:11" x14ac:dyDescent="0.7">
+    <row r="261" spans="1:11" x14ac:dyDescent="0.85">
       <c r="A261">
         <v>260</v>
       </c>
@@ -10736,7 +10326,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="262" spans="1:11" x14ac:dyDescent="0.7">
+    <row r="262" spans="1:11" x14ac:dyDescent="0.85">
       <c r="A262">
         <v>261</v>
       </c>
@@ -10771,7 +10361,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="263" spans="1:11" x14ac:dyDescent="0.7">
+    <row r="263" spans="1:11" x14ac:dyDescent="0.85">
       <c r="A263">
         <v>262</v>
       </c>
@@ -10806,7 +10396,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="264" spans="1:11" x14ac:dyDescent="0.7">
+    <row r="264" spans="1:11" x14ac:dyDescent="0.85">
       <c r="A264">
         <v>263</v>
       </c>
@@ -10841,7 +10431,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="265" spans="1:11" x14ac:dyDescent="0.7">
+    <row r="265" spans="1:11" x14ac:dyDescent="0.85">
       <c r="A265">
         <v>264</v>
       </c>
@@ -10876,7 +10466,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="266" spans="1:11" x14ac:dyDescent="0.7">
+    <row r="266" spans="1:11" x14ac:dyDescent="0.85">
       <c r="A266">
         <v>265</v>
       </c>
@@ -10911,7 +10501,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="267" spans="1:11" x14ac:dyDescent="0.7">
+    <row r="267" spans="1:11" x14ac:dyDescent="0.85">
       <c r="A267">
         <v>266</v>
       </c>
@@ -10946,7 +10536,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="268" spans="1:11" x14ac:dyDescent="0.7">
+    <row r="268" spans="1:11" x14ac:dyDescent="0.85">
       <c r="A268">
         <v>267</v>
       </c>
@@ -10981,7 +10571,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="269" spans="1:11" x14ac:dyDescent="0.7">
+    <row r="269" spans="1:11" x14ac:dyDescent="0.85">
       <c r="A269">
         <v>268</v>
       </c>
@@ -11016,7 +10606,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="270" spans="1:11" x14ac:dyDescent="0.7">
+    <row r="270" spans="1:11" x14ac:dyDescent="0.85">
       <c r="A270">
         <v>269</v>
       </c>
@@ -11051,7 +10641,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="271" spans="1:11" x14ac:dyDescent="0.7">
+    <row r="271" spans="1:11" x14ac:dyDescent="0.85">
       <c r="A271">
         <v>270</v>
       </c>
@@ -11086,7 +10676,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="272" spans="1:11" x14ac:dyDescent="0.7">
+    <row r="272" spans="1:11" x14ac:dyDescent="0.85">
       <c r="A272">
         <v>271</v>
       </c>
@@ -11121,7 +10711,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="273" spans="1:11" x14ac:dyDescent="0.7">
+    <row r="273" spans="1:11" x14ac:dyDescent="0.85">
       <c r="A273">
         <v>272</v>
       </c>
@@ -11156,7 +10746,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="274" spans="1:11" x14ac:dyDescent="0.7">
+    <row r="274" spans="1:11" x14ac:dyDescent="0.85">
       <c r="A274">
         <v>273</v>
       </c>
@@ -11191,7 +10781,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="275" spans="1:11" x14ac:dyDescent="0.7">
+    <row r="275" spans="1:11" x14ac:dyDescent="0.85">
       <c r="A275">
         <v>274</v>
       </c>
@@ -11226,7 +10816,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="276" spans="1:11" x14ac:dyDescent="0.7">
+    <row r="276" spans="1:11" x14ac:dyDescent="0.85">
       <c r="A276">
         <v>275</v>
       </c>
@@ -11261,7 +10851,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="277" spans="1:11" x14ac:dyDescent="0.7">
+    <row r="277" spans="1:11" x14ac:dyDescent="0.85">
       <c r="A277">
         <v>276</v>
       </c>
@@ -11296,7 +10886,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="278" spans="1:11" x14ac:dyDescent="0.7">
+    <row r="278" spans="1:11" x14ac:dyDescent="0.85">
       <c r="A278">
         <v>277</v>
       </c>
@@ -11331,7 +10921,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="279" spans="1:11" x14ac:dyDescent="0.7">
+    <row r="279" spans="1:11" x14ac:dyDescent="0.85">
       <c r="A279">
         <v>278</v>
       </c>
@@ -11366,7 +10956,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="280" spans="1:11" x14ac:dyDescent="0.7">
+    <row r="280" spans="1:11" x14ac:dyDescent="0.85">
       <c r="A280">
         <v>279</v>
       </c>
@@ -11401,7 +10991,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="281" spans="1:11" x14ac:dyDescent="0.7">
+    <row r="281" spans="1:11" x14ac:dyDescent="0.85">
       <c r="A281">
         <v>280</v>
       </c>
@@ -11436,7 +11026,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="282" spans="1:11" x14ac:dyDescent="0.7">
+    <row r="282" spans="1:11" x14ac:dyDescent="0.85">
       <c r="A282">
         <v>281</v>
       </c>
@@ -11471,7 +11061,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="283" spans="1:11" x14ac:dyDescent="0.7">
+    <row r="283" spans="1:11" x14ac:dyDescent="0.85">
       <c r="A283">
         <v>282</v>
       </c>
@@ -11506,7 +11096,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="284" spans="1:11" x14ac:dyDescent="0.7">
+    <row r="284" spans="1:11" x14ac:dyDescent="0.85">
       <c r="A284">
         <v>283</v>
       </c>
@@ -11541,7 +11131,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="285" spans="1:11" x14ac:dyDescent="0.7">
+    <row r="285" spans="1:11" x14ac:dyDescent="0.85">
       <c r="A285">
         <v>284</v>
       </c>
@@ -11576,7 +11166,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="286" spans="1:11" x14ac:dyDescent="0.7">
+    <row r="286" spans="1:11" x14ac:dyDescent="0.85">
       <c r="A286">
         <v>285</v>
       </c>
@@ -11611,7 +11201,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="287" spans="1:11" x14ac:dyDescent="0.7">
+    <row r="287" spans="1:11" x14ac:dyDescent="0.85">
       <c r="A287">
         <v>286</v>
       </c>
@@ -11646,7 +11236,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="288" spans="1:11" x14ac:dyDescent="0.7">
+    <row r="288" spans="1:11" x14ac:dyDescent="0.85">
       <c r="A288">
         <v>287</v>
       </c>
@@ -11681,7 +11271,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="289" spans="1:11" x14ac:dyDescent="0.7">
+    <row r="289" spans="1:11" x14ac:dyDescent="0.85">
       <c r="A289">
         <v>288</v>
       </c>
@@ -11716,7 +11306,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="290" spans="1:11" x14ac:dyDescent="0.7">
+    <row r="290" spans="1:11" x14ac:dyDescent="0.85">
       <c r="A290">
         <v>289</v>
       </c>
@@ -11751,7 +11341,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="291" spans="1:11" x14ac:dyDescent="0.7">
+    <row r="291" spans="1:11" x14ac:dyDescent="0.85">
       <c r="A291">
         <v>290</v>
       </c>
@@ -11786,7 +11376,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="292" spans="1:11" x14ac:dyDescent="0.7">
+    <row r="292" spans="1:11" x14ac:dyDescent="0.85">
       <c r="A292">
         <v>291</v>
       </c>
@@ -11821,7 +11411,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="293" spans="1:11" x14ac:dyDescent="0.7">
+    <row r="293" spans="1:11" x14ac:dyDescent="0.85">
       <c r="A293">
         <v>292</v>
       </c>
@@ -11856,7 +11446,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="294" spans="1:11" x14ac:dyDescent="0.7">
+    <row r="294" spans="1:11" x14ac:dyDescent="0.85">
       <c r="A294">
         <v>293</v>
       </c>
@@ -11891,7 +11481,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="295" spans="1:11" x14ac:dyDescent="0.7">
+    <row r="295" spans="1:11" x14ac:dyDescent="0.85">
       <c r="A295">
         <v>294</v>
       </c>
@@ -11926,7 +11516,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="296" spans="1:11" x14ac:dyDescent="0.7">
+    <row r="296" spans="1:11" x14ac:dyDescent="0.85">
       <c r="A296">
         <v>295</v>
       </c>
@@ -11961,7 +11551,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="297" spans="1:11" x14ac:dyDescent="0.7">
+    <row r="297" spans="1:11" x14ac:dyDescent="0.85">
       <c r="A297">
         <v>296</v>
       </c>
@@ -11996,7 +11586,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="298" spans="1:11" x14ac:dyDescent="0.7">
+    <row r="298" spans="1:11" x14ac:dyDescent="0.85">
       <c r="A298">
         <v>297</v>
       </c>
@@ -12031,7 +11621,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="299" spans="1:11" x14ac:dyDescent="0.7">
+    <row r="299" spans="1:11" x14ac:dyDescent="0.85">
       <c r="A299">
         <v>298</v>
       </c>
@@ -12066,7 +11656,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="300" spans="1:11" x14ac:dyDescent="0.7">
+    <row r="300" spans="1:11" x14ac:dyDescent="0.85">
       <c r="A300">
         <v>299</v>
       </c>
@@ -12101,7 +11691,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="301" spans="1:11" x14ac:dyDescent="0.7">
+    <row r="301" spans="1:11" x14ac:dyDescent="0.85">
       <c r="A301">
         <v>300</v>
       </c>
@@ -12136,7 +11726,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="302" spans="1:11" x14ac:dyDescent="0.7">
+    <row r="302" spans="1:11" x14ac:dyDescent="0.85">
       <c r="A302">
         <v>301</v>
       </c>
@@ -12171,7 +11761,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="303" spans="1:11" x14ac:dyDescent="0.7">
+    <row r="303" spans="1:11" x14ac:dyDescent="0.85">
       <c r="A303">
         <v>302</v>
       </c>
@@ -12206,7 +11796,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="304" spans="1:11" x14ac:dyDescent="0.7">
+    <row r="304" spans="1:11" x14ac:dyDescent="0.85">
       <c r="A304">
         <v>303</v>
       </c>
@@ -12241,7 +11831,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="305" spans="1:11" x14ac:dyDescent="0.7">
+    <row r="305" spans="1:11" x14ac:dyDescent="0.85">
       <c r="A305">
         <v>304</v>
       </c>
@@ -12276,7 +11866,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="306" spans="1:11" x14ac:dyDescent="0.7">
+    <row r="306" spans="1:11" x14ac:dyDescent="0.85">
       <c r="A306">
         <v>305</v>
       </c>
@@ -12311,7 +11901,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="307" spans="1:11" x14ac:dyDescent="0.7">
+    <row r="307" spans="1:11" x14ac:dyDescent="0.85">
       <c r="A307">
         <v>306</v>
       </c>
@@ -12346,7 +11936,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="308" spans="1:11" x14ac:dyDescent="0.7">
+    <row r="308" spans="1:11" x14ac:dyDescent="0.85">
       <c r="A308">
         <v>307</v>
       </c>
@@ -12381,7 +11971,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="309" spans="1:11" x14ac:dyDescent="0.7">
+    <row r="309" spans="1:11" x14ac:dyDescent="0.85">
       <c r="A309">
         <v>308</v>
       </c>
@@ -12416,7 +12006,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="310" spans="1:11" x14ac:dyDescent="0.7">
+    <row r="310" spans="1:11" x14ac:dyDescent="0.85">
       <c r="A310">
         <v>309</v>
       </c>
@@ -12451,7 +12041,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="311" spans="1:11" x14ac:dyDescent="0.7">
+    <row r="311" spans="1:11" x14ac:dyDescent="0.85">
       <c r="A311">
         <v>310</v>
       </c>
@@ -12486,7 +12076,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="312" spans="1:11" x14ac:dyDescent="0.7">
+    <row r="312" spans="1:11" x14ac:dyDescent="0.85">
       <c r="A312">
         <v>311</v>
       </c>
@@ -12521,7 +12111,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="313" spans="1:11" x14ac:dyDescent="0.7">
+    <row r="313" spans="1:11" x14ac:dyDescent="0.85">
       <c r="A313">
         <v>312</v>
       </c>
@@ -12556,7 +12146,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="314" spans="1:11" x14ac:dyDescent="0.7">
+    <row r="314" spans="1:11" x14ac:dyDescent="0.85">
       <c r="A314">
         <v>313</v>
       </c>
@@ -12591,7 +12181,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="315" spans="1:11" x14ac:dyDescent="0.7">
+    <row r="315" spans="1:11" x14ac:dyDescent="0.85">
       <c r="A315">
         <v>314</v>
       </c>
@@ -12626,7 +12216,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="316" spans="1:11" x14ac:dyDescent="0.7">
+    <row r="316" spans="1:11" x14ac:dyDescent="0.85">
       <c r="A316">
         <v>315</v>
       </c>
@@ -12661,7 +12251,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="317" spans="1:11" x14ac:dyDescent="0.7">
+    <row r="317" spans="1:11" x14ac:dyDescent="0.85">
       <c r="A317">
         <v>316</v>
       </c>
@@ -12696,7 +12286,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="318" spans="1:11" x14ac:dyDescent="0.7">
+    <row r="318" spans="1:11" x14ac:dyDescent="0.85">
       <c r="A318">
         <v>317</v>
       </c>
@@ -12731,7 +12321,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="319" spans="1:11" x14ac:dyDescent="0.7">
+    <row r="319" spans="1:11" x14ac:dyDescent="0.85">
       <c r="A319">
         <v>318</v>
       </c>
@@ -12766,7 +12356,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="320" spans="1:11" x14ac:dyDescent="0.7">
+    <row r="320" spans="1:11" x14ac:dyDescent="0.85">
       <c r="A320">
         <v>319</v>
       </c>
@@ -12801,7 +12391,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="321" spans="1:11" x14ac:dyDescent="0.7">
+    <row r="321" spans="1:11" x14ac:dyDescent="0.85">
       <c r="A321">
         <v>320</v>
       </c>
@@ -12836,7 +12426,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="322" spans="1:11" x14ac:dyDescent="0.7">
+    <row r="322" spans="1:11" x14ac:dyDescent="0.85">
       <c r="A322">
         <v>321</v>
       </c>
@@ -12871,7 +12461,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="323" spans="1:11" x14ac:dyDescent="0.7">
+    <row r="323" spans="1:11" x14ac:dyDescent="0.85">
       <c r="A323">
         <v>322</v>
       </c>
@@ -12906,7 +12496,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="324" spans="1:11" x14ac:dyDescent="0.7">
+    <row r="324" spans="1:11" x14ac:dyDescent="0.85">
       <c r="A324">
         <v>323</v>
       </c>
@@ -12941,7 +12531,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="325" spans="1:11" x14ac:dyDescent="0.7">
+    <row r="325" spans="1:11" x14ac:dyDescent="0.85">
       <c r="A325">
         <v>324</v>
       </c>
@@ -12976,7 +12566,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="326" spans="1:11" x14ac:dyDescent="0.7">
+    <row r="326" spans="1:11" x14ac:dyDescent="0.85">
       <c r="A326">
         <v>325</v>
       </c>
@@ -13011,7 +12601,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="327" spans="1:11" x14ac:dyDescent="0.7">
+    <row r="327" spans="1:11" x14ac:dyDescent="0.85">
       <c r="A327">
         <v>326</v>
       </c>
@@ -13046,7 +12636,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="328" spans="1:11" x14ac:dyDescent="0.7">
+    <row r="328" spans="1:11" x14ac:dyDescent="0.85">
       <c r="A328">
         <v>327</v>
       </c>
@@ -13081,7 +12671,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="329" spans="1:11" x14ac:dyDescent="0.7">
+    <row r="329" spans="1:11" x14ac:dyDescent="0.85">
       <c r="A329">
         <v>328</v>
       </c>
@@ -13116,7 +12706,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="330" spans="1:11" x14ac:dyDescent="0.7">
+    <row r="330" spans="1:11" x14ac:dyDescent="0.85">
       <c r="A330">
         <v>329</v>
       </c>
@@ -13151,7 +12741,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="331" spans="1:11" x14ac:dyDescent="0.7">
+    <row r="331" spans="1:11" x14ac:dyDescent="0.85">
       <c r="A331">
         <v>330</v>
       </c>
@@ -13186,7 +12776,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="332" spans="1:11" x14ac:dyDescent="0.7">
+    <row r="332" spans="1:11" x14ac:dyDescent="0.85">
       <c r="A332">
         <v>331</v>
       </c>
@@ -13221,7 +12811,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="333" spans="1:11" x14ac:dyDescent="0.7">
+    <row r="333" spans="1:11" x14ac:dyDescent="0.85">
       <c r="A333">
         <v>332</v>
       </c>
@@ -13256,7 +12846,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="334" spans="1:11" x14ac:dyDescent="0.7">
+    <row r="334" spans="1:11" x14ac:dyDescent="0.85">
       <c r="A334">
         <v>333</v>
       </c>
@@ -13291,7 +12881,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="335" spans="1:11" x14ac:dyDescent="0.7">
+    <row r="335" spans="1:11" x14ac:dyDescent="0.85">
       <c r="A335">
         <v>334</v>
       </c>
@@ -13326,7 +12916,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="336" spans="1:11" x14ac:dyDescent="0.7">
+    <row r="336" spans="1:11" x14ac:dyDescent="0.85">
       <c r="A336">
         <v>335</v>
       </c>
@@ -13361,7 +12951,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="337" spans="1:11" x14ac:dyDescent="0.7">
+    <row r="337" spans="1:11" x14ac:dyDescent="0.85">
       <c r="A337">
         <v>336</v>
       </c>
@@ -13396,7 +12986,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="338" spans="1:11" x14ac:dyDescent="0.7">
+    <row r="338" spans="1:11" x14ac:dyDescent="0.85">
       <c r="A338">
         <v>337</v>
       </c>
@@ -13431,7 +13021,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="339" spans="1:11" x14ac:dyDescent="0.7">
+    <row r="339" spans="1:11" x14ac:dyDescent="0.85">
       <c r="A339">
         <v>338</v>
       </c>
@@ -13466,7 +13056,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="340" spans="1:11" x14ac:dyDescent="0.7">
+    <row r="340" spans="1:11" x14ac:dyDescent="0.85">
       <c r="A340">
         <v>339</v>
       </c>
@@ -13501,7 +13091,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="341" spans="1:11" x14ac:dyDescent="0.7">
+    <row r="341" spans="1:11" x14ac:dyDescent="0.85">
       <c r="A341">
         <v>340</v>
       </c>
@@ -13536,7 +13126,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="342" spans="1:11" x14ac:dyDescent="0.7">
+    <row r="342" spans="1:11" x14ac:dyDescent="0.85">
       <c r="A342">
         <v>341</v>
       </c>
@@ -13571,7 +13161,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="343" spans="1:11" x14ac:dyDescent="0.7">
+    <row r="343" spans="1:11" x14ac:dyDescent="0.85">
       <c r="A343">
         <v>342</v>
       </c>
@@ -13606,7 +13196,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="344" spans="1:11" x14ac:dyDescent="0.7">
+    <row r="344" spans="1:11" x14ac:dyDescent="0.85">
       <c r="A344">
         <v>343</v>
       </c>
@@ -13641,7 +13231,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="345" spans="1:11" x14ac:dyDescent="0.7">
+    <row r="345" spans="1:11" x14ac:dyDescent="0.85">
       <c r="A345">
         <v>344</v>
       </c>
@@ -13676,7 +13266,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="346" spans="1:11" x14ac:dyDescent="0.7">
+    <row r="346" spans="1:11" x14ac:dyDescent="0.85">
       <c r="A346">
         <v>345</v>
       </c>
@@ -13711,7 +13301,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="347" spans="1:11" x14ac:dyDescent="0.7">
+    <row r="347" spans="1:11" x14ac:dyDescent="0.85">
       <c r="A347">
         <v>346</v>
       </c>
@@ -13746,7 +13336,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="348" spans="1:11" x14ac:dyDescent="0.7">
+    <row r="348" spans="1:11" x14ac:dyDescent="0.85">
       <c r="A348">
         <v>347</v>
       </c>
@@ -13781,7 +13371,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="349" spans="1:11" x14ac:dyDescent="0.7">
+    <row r="349" spans="1:11" x14ac:dyDescent="0.85">
       <c r="A349">
         <v>348</v>
       </c>
@@ -13816,7 +13406,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="350" spans="1:11" x14ac:dyDescent="0.7">
+    <row r="350" spans="1:11" x14ac:dyDescent="0.85">
       <c r="A350">
         <v>349</v>
       </c>
@@ -13851,7 +13441,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="351" spans="1:11" x14ac:dyDescent="0.7">
+    <row r="351" spans="1:11" x14ac:dyDescent="0.85">
       <c r="A351">
         <v>350</v>
       </c>
@@ -13886,7 +13476,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="352" spans="1:11" x14ac:dyDescent="0.7">
+    <row r="352" spans="1:11" x14ac:dyDescent="0.85">
       <c r="A352">
         <v>351</v>
       </c>
@@ -13921,7 +13511,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="353" spans="1:11" x14ac:dyDescent="0.7">
+    <row r="353" spans="1:11" x14ac:dyDescent="0.85">
       <c r="A353">
         <v>352</v>
       </c>
@@ -13956,7 +13546,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="354" spans="1:11" x14ac:dyDescent="0.7">
+    <row r="354" spans="1:11" x14ac:dyDescent="0.85">
       <c r="A354">
         <v>353</v>
       </c>
@@ -13991,7 +13581,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="355" spans="1:11" x14ac:dyDescent="0.7">
+    <row r="355" spans="1:11" x14ac:dyDescent="0.85">
       <c r="A355">
         <v>354</v>
       </c>
@@ -14026,7 +13616,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="356" spans="1:11" x14ac:dyDescent="0.7">
+    <row r="356" spans="1:11" x14ac:dyDescent="0.85">
       <c r="A356">
         <v>355</v>
       </c>
@@ -14061,7 +13651,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="357" spans="1:11" x14ac:dyDescent="0.7">
+    <row r="357" spans="1:11" x14ac:dyDescent="0.85">
       <c r="A357">
         <v>356</v>
       </c>
@@ -14096,7 +13686,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="358" spans="1:11" x14ac:dyDescent="0.7">
+    <row r="358" spans="1:11" x14ac:dyDescent="0.85">
       <c r="A358">
         <v>357</v>
       </c>
@@ -14131,7 +13721,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="359" spans="1:11" x14ac:dyDescent="0.7">
+    <row r="359" spans="1:11" x14ac:dyDescent="0.85">
       <c r="A359">
         <v>358</v>
       </c>
@@ -14166,7 +13756,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="360" spans="1:11" x14ac:dyDescent="0.7">
+    <row r="360" spans="1:11" x14ac:dyDescent="0.85">
       <c r="A360">
         <v>359</v>
       </c>
@@ -14201,7 +13791,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="361" spans="1:11" x14ac:dyDescent="0.7">
+    <row r="361" spans="1:11" x14ac:dyDescent="0.85">
       <c r="A361">
         <v>360</v>
       </c>
@@ -14236,7 +13826,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="362" spans="1:11" x14ac:dyDescent="0.7">
+    <row r="362" spans="1:11" x14ac:dyDescent="0.85">
       <c r="A362">
         <v>361</v>
       </c>
@@ -14271,7 +13861,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="363" spans="1:11" x14ac:dyDescent="0.7">
+    <row r="363" spans="1:11" x14ac:dyDescent="0.85">
       <c r="A363">
         <v>362</v>
       </c>
@@ -14306,7 +13896,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="364" spans="1:11" x14ac:dyDescent="0.7">
+    <row r="364" spans="1:11" x14ac:dyDescent="0.85">
       <c r="A364">
         <v>363</v>
       </c>
@@ -14341,7 +13931,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="365" spans="1:11" x14ac:dyDescent="0.7">
+    <row r="365" spans="1:11" x14ac:dyDescent="0.85">
       <c r="A365">
         <v>364</v>
       </c>
@@ -14376,7 +13966,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="366" spans="1:11" x14ac:dyDescent="0.7">
+    <row r="366" spans="1:11" x14ac:dyDescent="0.85">
       <c r="A366">
         <v>365</v>
       </c>
@@ -14411,7 +14001,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="367" spans="1:11" x14ac:dyDescent="0.7">
+    <row r="367" spans="1:11" x14ac:dyDescent="0.85">
       <c r="A367">
         <v>366</v>
       </c>
@@ -14446,7 +14036,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="368" spans="1:11" x14ac:dyDescent="0.7">
+    <row r="368" spans="1:11" x14ac:dyDescent="0.85">
       <c r="A368">
         <v>367</v>
       </c>
@@ -14481,7 +14071,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="369" spans="1:11" x14ac:dyDescent="0.7">
+    <row r="369" spans="1:11" x14ac:dyDescent="0.85">
       <c r="A369">
         <v>368</v>
       </c>
@@ -14516,7 +14106,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="370" spans="1:11" x14ac:dyDescent="0.7">
+    <row r="370" spans="1:11" x14ac:dyDescent="0.85">
       <c r="A370">
         <v>369</v>
       </c>
@@ -14551,7 +14141,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="371" spans="1:11" x14ac:dyDescent="0.7">
+    <row r="371" spans="1:11" x14ac:dyDescent="0.85">
       <c r="A371">
         <v>370</v>
       </c>
@@ -14586,7 +14176,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="372" spans="1:11" x14ac:dyDescent="0.7">
+    <row r="372" spans="1:11" x14ac:dyDescent="0.85">
       <c r="A372">
         <v>371</v>
       </c>
@@ -14621,7 +14211,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="373" spans="1:11" x14ac:dyDescent="0.7">
+    <row r="373" spans="1:11" x14ac:dyDescent="0.85">
       <c r="A373">
         <v>372</v>
       </c>
@@ -14656,7 +14246,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="374" spans="1:11" x14ac:dyDescent="0.7">
+    <row r="374" spans="1:11" x14ac:dyDescent="0.85">
       <c r="A374">
         <v>373</v>
       </c>
@@ -14691,7 +14281,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="375" spans="1:11" x14ac:dyDescent="0.7">
+    <row r="375" spans="1:11" x14ac:dyDescent="0.85">
       <c r="A375">
         <v>374</v>
       </c>
@@ -14726,7 +14316,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="376" spans="1:11" x14ac:dyDescent="0.7">
+    <row r="376" spans="1:11" x14ac:dyDescent="0.85">
       <c r="A376">
         <v>375</v>
       </c>
@@ -14761,7 +14351,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="377" spans="1:11" x14ac:dyDescent="0.7">
+    <row r="377" spans="1:11" x14ac:dyDescent="0.85">
       <c r="A377">
         <v>376</v>
       </c>
@@ -14796,7 +14386,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="378" spans="1:11" x14ac:dyDescent="0.7">
+    <row r="378" spans="1:11" x14ac:dyDescent="0.85">
       <c r="A378">
         <v>377</v>
       </c>
@@ -14831,7 +14421,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="379" spans="1:11" x14ac:dyDescent="0.7">
+    <row r="379" spans="1:11" x14ac:dyDescent="0.85">
       <c r="A379">
         <v>378</v>
       </c>
@@ -14866,7 +14456,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="380" spans="1:11" x14ac:dyDescent="0.7">
+    <row r="380" spans="1:11" x14ac:dyDescent="0.85">
       <c r="A380">
         <v>379</v>
       </c>
@@ -14901,7 +14491,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="381" spans="1:11" x14ac:dyDescent="0.7">
+    <row r="381" spans="1:11" x14ac:dyDescent="0.85">
       <c r="A381">
         <v>380</v>
       </c>
@@ -14936,7 +14526,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="382" spans="1:11" x14ac:dyDescent="0.7">
+    <row r="382" spans="1:11" x14ac:dyDescent="0.85">
       <c r="A382">
         <v>381</v>
       </c>
@@ -14971,7 +14561,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="383" spans="1:11" x14ac:dyDescent="0.7">
+    <row r="383" spans="1:11" x14ac:dyDescent="0.85">
       <c r="A383">
         <v>382</v>
       </c>
@@ -15006,7 +14596,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="384" spans="1:11" x14ac:dyDescent="0.7">
+    <row r="384" spans="1:11" x14ac:dyDescent="0.85">
       <c r="A384">
         <v>383</v>
       </c>
@@ -15041,7 +14631,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="385" spans="1:11" x14ac:dyDescent="0.7">
+    <row r="385" spans="1:11" x14ac:dyDescent="0.85">
       <c r="A385">
         <v>384</v>
       </c>
@@ -15076,7 +14666,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="386" spans="1:11" x14ac:dyDescent="0.7">
+    <row r="386" spans="1:11" x14ac:dyDescent="0.85">
       <c r="A386">
         <v>385</v>
       </c>
@@ -15111,7 +14701,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="387" spans="1:11" x14ac:dyDescent="0.7">
+    <row r="387" spans="1:11" x14ac:dyDescent="0.85">
       <c r="A387">
         <v>386</v>
       </c>
@@ -15146,7 +14736,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="388" spans="1:11" x14ac:dyDescent="0.7">
+    <row r="388" spans="1:11" x14ac:dyDescent="0.85">
       <c r="A388">
         <v>387</v>
       </c>
@@ -15181,7 +14771,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="389" spans="1:11" x14ac:dyDescent="0.7">
+    <row r="389" spans="1:11" x14ac:dyDescent="0.85">
       <c r="A389">
         <v>388</v>
       </c>
@@ -15216,7 +14806,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="390" spans="1:11" x14ac:dyDescent="0.7">
+    <row r="390" spans="1:11" x14ac:dyDescent="0.85">
       <c r="A390">
         <v>389</v>
       </c>
@@ -15251,7 +14841,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="391" spans="1:11" x14ac:dyDescent="0.7">
+    <row r="391" spans="1:11" x14ac:dyDescent="0.85">
       <c r="A391">
         <v>390</v>
       </c>
@@ -15286,7 +14876,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="392" spans="1:11" x14ac:dyDescent="0.7">
+    <row r="392" spans="1:11" x14ac:dyDescent="0.85">
       <c r="A392">
         <v>391</v>
       </c>
@@ -15321,7 +14911,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="393" spans="1:11" x14ac:dyDescent="0.7">
+    <row r="393" spans="1:11" x14ac:dyDescent="0.85">
       <c r="A393">
         <v>392</v>
       </c>
@@ -15356,7 +14946,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="394" spans="1:11" x14ac:dyDescent="0.7">
+    <row r="394" spans="1:11" x14ac:dyDescent="0.85">
       <c r="A394">
         <v>393</v>
       </c>
@@ -15391,7 +14981,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="395" spans="1:11" x14ac:dyDescent="0.7">
+    <row r="395" spans="1:11" x14ac:dyDescent="0.85">
       <c r="A395">
         <v>394</v>
       </c>
@@ -15426,7 +15016,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="396" spans="1:11" x14ac:dyDescent="0.7">
+    <row r="396" spans="1:11" x14ac:dyDescent="0.85">
       <c r="A396">
         <v>395</v>
       </c>
@@ -15461,7 +15051,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="397" spans="1:11" x14ac:dyDescent="0.7">
+    <row r="397" spans="1:11" x14ac:dyDescent="0.85">
       <c r="A397">
         <v>396</v>
       </c>
@@ -15496,7 +15086,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="398" spans="1:11" x14ac:dyDescent="0.7">
+    <row r="398" spans="1:11" x14ac:dyDescent="0.85">
       <c r="A398">
         <v>397</v>
       </c>
@@ -15531,7 +15121,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="399" spans="1:11" x14ac:dyDescent="0.7">
+    <row r="399" spans="1:11" x14ac:dyDescent="0.85">
       <c r="A399">
         <v>398</v>
       </c>
@@ -15566,7 +15156,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="400" spans="1:11" x14ac:dyDescent="0.7">
+    <row r="400" spans="1:11" x14ac:dyDescent="0.85">
       <c r="A400">
         <v>399</v>
       </c>
@@ -15601,7 +15191,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="401" spans="1:11" x14ac:dyDescent="0.7">
+    <row r="401" spans="1:11" x14ac:dyDescent="0.85">
       <c r="A401">
         <v>400</v>
       </c>
@@ -15636,7 +15226,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="402" spans="1:11" x14ac:dyDescent="0.7">
+    <row r="402" spans="1:11" x14ac:dyDescent="0.85">
       <c r="A402">
         <v>401</v>
       </c>
@@ -15671,7 +15261,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="403" spans="1:11" x14ac:dyDescent="0.7">
+    <row r="403" spans="1:11" x14ac:dyDescent="0.85">
       <c r="A403">
         <v>402</v>
       </c>
@@ -15706,7 +15296,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="404" spans="1:11" x14ac:dyDescent="0.7">
+    <row r="404" spans="1:11" x14ac:dyDescent="0.85">
       <c r="A404">
         <v>403</v>
       </c>
@@ -15741,7 +15331,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="405" spans="1:11" x14ac:dyDescent="0.7">
+    <row r="405" spans="1:11" x14ac:dyDescent="0.85">
       <c r="A405">
         <v>404</v>
       </c>
@@ -15776,7 +15366,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="406" spans="1:11" x14ac:dyDescent="0.7">
+    <row r="406" spans="1:11" x14ac:dyDescent="0.85">
       <c r="A406">
         <v>405</v>
       </c>
@@ -15811,7 +15401,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="407" spans="1:11" x14ac:dyDescent="0.7">
+    <row r="407" spans="1:11" x14ac:dyDescent="0.85">
       <c r="A407">
         <v>406</v>
       </c>
@@ -15846,7 +15436,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="408" spans="1:11" x14ac:dyDescent="0.7">
+    <row r="408" spans="1:11" x14ac:dyDescent="0.85">
       <c r="A408">
         <v>407</v>
       </c>
@@ -15881,7 +15471,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="409" spans="1:11" x14ac:dyDescent="0.7">
+    <row r="409" spans="1:11" x14ac:dyDescent="0.85">
       <c r="A409">
         <v>408</v>
       </c>
@@ -15916,7 +15506,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="410" spans="1:11" x14ac:dyDescent="0.7">
+    <row r="410" spans="1:11" x14ac:dyDescent="0.85">
       <c r="A410">
         <v>409</v>
       </c>
@@ -15951,7 +15541,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="411" spans="1:11" x14ac:dyDescent="0.7">
+    <row r="411" spans="1:11" x14ac:dyDescent="0.85">
       <c r="A411">
         <v>410</v>
       </c>
@@ -15986,7 +15576,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="412" spans="1:11" x14ac:dyDescent="0.7">
+    <row r="412" spans="1:11" x14ac:dyDescent="0.85">
       <c r="A412">
         <v>411</v>
       </c>
@@ -16021,7 +15611,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="413" spans="1:11" x14ac:dyDescent="0.7">
+    <row r="413" spans="1:11" x14ac:dyDescent="0.85">
       <c r="A413">
         <v>412</v>
       </c>
@@ -16056,7 +15646,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="414" spans="1:11" x14ac:dyDescent="0.7">
+    <row r="414" spans="1:11" x14ac:dyDescent="0.85">
       <c r="A414">
         <v>413</v>
       </c>
@@ -16091,7 +15681,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="415" spans="1:11" x14ac:dyDescent="0.7">
+    <row r="415" spans="1:11" x14ac:dyDescent="0.85">
       <c r="A415">
         <v>414</v>
       </c>
@@ -16126,7 +15716,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="416" spans="1:11" x14ac:dyDescent="0.7">
+    <row r="416" spans="1:11" x14ac:dyDescent="0.85">
       <c r="A416">
         <v>415</v>
       </c>
@@ -16161,7 +15751,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="417" spans="1:11" x14ac:dyDescent="0.7">
+    <row r="417" spans="1:11" x14ac:dyDescent="0.85">
       <c r="A417">
         <v>416</v>
       </c>
@@ -16196,7 +15786,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="418" spans="1:11" x14ac:dyDescent="0.7">
+    <row r="418" spans="1:11" x14ac:dyDescent="0.85">
       <c r="A418">
         <v>417</v>
       </c>
@@ -16231,7 +15821,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="419" spans="1:11" x14ac:dyDescent="0.7">
+    <row r="419" spans="1:11" x14ac:dyDescent="0.85">
       <c r="A419">
         <v>418</v>
       </c>
@@ -16266,7 +15856,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="420" spans="1:11" x14ac:dyDescent="0.7">
+    <row r="420" spans="1:11" x14ac:dyDescent="0.85">
       <c r="A420">
         <v>419</v>
       </c>
@@ -16301,7 +15891,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="421" spans="1:11" x14ac:dyDescent="0.7">
+    <row r="421" spans="1:11" x14ac:dyDescent="0.85">
       <c r="A421">
         <v>420</v>
       </c>
@@ -16336,7 +15926,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="422" spans="1:11" x14ac:dyDescent="0.7">
+    <row r="422" spans="1:11" x14ac:dyDescent="0.85">
       <c r="A422">
         <v>421</v>
       </c>
@@ -16371,7 +15961,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="423" spans="1:11" x14ac:dyDescent="0.7">
+    <row r="423" spans="1:11" x14ac:dyDescent="0.85">
       <c r="A423">
         <v>422</v>
       </c>
@@ -16406,7 +15996,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="424" spans="1:11" x14ac:dyDescent="0.7">
+    <row r="424" spans="1:11" x14ac:dyDescent="0.85">
       <c r="A424">
         <v>423</v>
       </c>
@@ -16441,7 +16031,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="425" spans="1:11" x14ac:dyDescent="0.7">
+    <row r="425" spans="1:11" x14ac:dyDescent="0.85">
       <c r="A425">
         <v>424</v>
       </c>
@@ -16476,7 +16066,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="426" spans="1:11" x14ac:dyDescent="0.7">
+    <row r="426" spans="1:11" x14ac:dyDescent="0.85">
       <c r="A426">
         <v>425</v>
       </c>
@@ -16511,7 +16101,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="427" spans="1:11" x14ac:dyDescent="0.7">
+    <row r="427" spans="1:11" x14ac:dyDescent="0.85">
       <c r="A427">
         <v>426</v>
       </c>
@@ -16546,7 +16136,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="428" spans="1:11" x14ac:dyDescent="0.7">
+    <row r="428" spans="1:11" x14ac:dyDescent="0.85">
       <c r="A428">
         <v>427</v>
       </c>
@@ -16581,7 +16171,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="429" spans="1:11" x14ac:dyDescent="0.7">
+    <row r="429" spans="1:11" x14ac:dyDescent="0.85">
       <c r="A429">
         <v>428</v>
       </c>
@@ -16616,7 +16206,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="430" spans="1:11" x14ac:dyDescent="0.7">
+    <row r="430" spans="1:11" x14ac:dyDescent="0.85">
       <c r="A430">
         <v>429</v>
       </c>
@@ -16651,7 +16241,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="431" spans="1:11" x14ac:dyDescent="0.7">
+    <row r="431" spans="1:11" x14ac:dyDescent="0.85">
       <c r="A431">
         <v>430</v>
       </c>
@@ -16686,7 +16276,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="432" spans="1:11" x14ac:dyDescent="0.7">
+    <row r="432" spans="1:11" x14ac:dyDescent="0.85">
       <c r="A432">
         <v>431</v>
       </c>
@@ -16721,7 +16311,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="433" spans="1:11" x14ac:dyDescent="0.7">
+    <row r="433" spans="1:11" x14ac:dyDescent="0.85">
       <c r="A433">
         <v>432</v>
       </c>
@@ -16756,7 +16346,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="434" spans="1:11" x14ac:dyDescent="0.7">
+    <row r="434" spans="1:11" x14ac:dyDescent="0.85">
       <c r="A434">
         <v>433</v>
       </c>
@@ -16791,7 +16381,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="435" spans="1:11" x14ac:dyDescent="0.7">
+    <row r="435" spans="1:11" x14ac:dyDescent="0.85">
       <c r="A435">
         <v>434</v>
       </c>
@@ -16826,7 +16416,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="436" spans="1:11" x14ac:dyDescent="0.7">
+    <row r="436" spans="1:11" x14ac:dyDescent="0.85">
       <c r="A436">
         <v>435</v>
       </c>
@@ -16861,7 +16451,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="437" spans="1:11" x14ac:dyDescent="0.7">
+    <row r="437" spans="1:11" x14ac:dyDescent="0.85">
       <c r="A437">
         <v>436</v>
       </c>
@@ -16896,7 +16486,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="438" spans="1:11" x14ac:dyDescent="0.7">
+    <row r="438" spans="1:11" x14ac:dyDescent="0.85">
       <c r="A438">
         <v>437</v>
       </c>
@@ -16931,7 +16521,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="439" spans="1:11" x14ac:dyDescent="0.7">
+    <row r="439" spans="1:11" x14ac:dyDescent="0.85">
       <c r="A439">
         <v>438</v>
       </c>
@@ -16966,7 +16556,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="440" spans="1:11" x14ac:dyDescent="0.7">
+    <row r="440" spans="1:11" x14ac:dyDescent="0.85">
       <c r="A440">
         <v>439</v>
       </c>
@@ -17001,7 +16591,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="441" spans="1:11" x14ac:dyDescent="0.7">
+    <row r="441" spans="1:11" x14ac:dyDescent="0.85">
       <c r="A441">
         <v>440</v>
       </c>
@@ -17036,7 +16626,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="442" spans="1:11" x14ac:dyDescent="0.7">
+    <row r="442" spans="1:11" x14ac:dyDescent="0.85">
       <c r="A442">
         <v>441</v>
       </c>
@@ -17071,7 +16661,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="443" spans="1:11" x14ac:dyDescent="0.7">
+    <row r="443" spans="1:11" x14ac:dyDescent="0.85">
       <c r="A443">
         <v>442</v>
       </c>
@@ -17106,7 +16696,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="444" spans="1:11" x14ac:dyDescent="0.7">
+    <row r="444" spans="1:11" x14ac:dyDescent="0.85">
       <c r="A444">
         <v>443</v>
       </c>
@@ -17141,7 +16731,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="445" spans="1:11" x14ac:dyDescent="0.7">
+    <row r="445" spans="1:11" x14ac:dyDescent="0.85">
       <c r="A445">
         <v>444</v>
       </c>
@@ -17176,7 +16766,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="446" spans="1:11" x14ac:dyDescent="0.7">
+    <row r="446" spans="1:11" x14ac:dyDescent="0.85">
       <c r="A446">
         <v>445</v>
       </c>
@@ -17211,7 +16801,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="447" spans="1:11" x14ac:dyDescent="0.7">
+    <row r="447" spans="1:11" x14ac:dyDescent="0.85">
       <c r="A447">
         <v>446</v>
       </c>
@@ -17246,7 +16836,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="448" spans="1:11" x14ac:dyDescent="0.7">
+    <row r="448" spans="1:11" x14ac:dyDescent="0.85">
       <c r="A448">
         <v>447</v>
       </c>
@@ -17281,7 +16871,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="449" spans="1:11" x14ac:dyDescent="0.7">
+    <row r="449" spans="1:11" x14ac:dyDescent="0.85">
       <c r="A449">
         <v>448</v>
       </c>
@@ -17316,7 +16906,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="450" spans="1:11" x14ac:dyDescent="0.7">
+    <row r="450" spans="1:11" x14ac:dyDescent="0.85">
       <c r="A450">
         <v>449</v>
       </c>
@@ -17351,7 +16941,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="451" spans="1:11" x14ac:dyDescent="0.7">
+    <row r="451" spans="1:11" x14ac:dyDescent="0.85">
       <c r="A451">
         <v>450</v>
       </c>
@@ -17386,7 +16976,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="452" spans="1:11" x14ac:dyDescent="0.7">
+    <row r="452" spans="1:11" x14ac:dyDescent="0.85">
       <c r="A452">
         <v>451</v>
       </c>
@@ -17421,7 +17011,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="453" spans="1:11" x14ac:dyDescent="0.7">
+    <row r="453" spans="1:11" x14ac:dyDescent="0.85">
       <c r="A453">
         <v>452</v>
       </c>
@@ -17456,7 +17046,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="454" spans="1:11" x14ac:dyDescent="0.7">
+    <row r="454" spans="1:11" x14ac:dyDescent="0.85">
       <c r="A454">
         <v>453</v>
       </c>
@@ -17491,7 +17081,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="455" spans="1:11" x14ac:dyDescent="0.7">
+    <row r="455" spans="1:11" x14ac:dyDescent="0.85">
       <c r="A455">
         <v>454</v>
       </c>
@@ -17526,7 +17116,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="456" spans="1:11" x14ac:dyDescent="0.7">
+    <row r="456" spans="1:11" x14ac:dyDescent="0.85">
       <c r="A456">
         <v>455</v>
       </c>
@@ -17561,7 +17151,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="457" spans="1:11" x14ac:dyDescent="0.7">
+    <row r="457" spans="1:11" x14ac:dyDescent="0.85">
       <c r="A457">
         <v>456</v>
       </c>
@@ -17596,7 +17186,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="458" spans="1:11" x14ac:dyDescent="0.7">
+    <row r="458" spans="1:11" x14ac:dyDescent="0.85">
       <c r="A458">
         <v>457</v>
       </c>
@@ -17631,7 +17221,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="459" spans="1:11" x14ac:dyDescent="0.7">
+    <row r="459" spans="1:11" x14ac:dyDescent="0.85">
       <c r="A459">
         <v>458</v>
       </c>
@@ -17666,7 +17256,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="460" spans="1:11" x14ac:dyDescent="0.7">
+    <row r="460" spans="1:11" x14ac:dyDescent="0.85">
       <c r="A460">
         <v>459</v>
       </c>
@@ -17701,7 +17291,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="461" spans="1:11" x14ac:dyDescent="0.7">
+    <row r="461" spans="1:11" x14ac:dyDescent="0.85">
       <c r="A461">
         <v>460</v>
       </c>
@@ -17736,7 +17326,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="462" spans="1:11" x14ac:dyDescent="0.7">
+    <row r="462" spans="1:11" x14ac:dyDescent="0.85">
       <c r="A462">
         <v>461</v>
       </c>
@@ -17771,7 +17361,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="463" spans="1:11" x14ac:dyDescent="0.7">
+    <row r="463" spans="1:11" x14ac:dyDescent="0.85">
       <c r="A463">
         <v>462</v>
       </c>
@@ -17806,7 +17396,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="464" spans="1:11" x14ac:dyDescent="0.7">
+    <row r="464" spans="1:11" x14ac:dyDescent="0.85">
       <c r="A464">
         <v>463</v>
       </c>
@@ -17841,7 +17431,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="465" spans="1:11" x14ac:dyDescent="0.7">
+    <row r="465" spans="1:11" x14ac:dyDescent="0.85">
       <c r="A465">
         <v>464</v>
       </c>
@@ -17876,7 +17466,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="466" spans="1:11" x14ac:dyDescent="0.7">
+    <row r="466" spans="1:11" x14ac:dyDescent="0.85">
       <c r="A466">
         <v>465</v>
       </c>
@@ -17911,7 +17501,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="467" spans="1:11" x14ac:dyDescent="0.7">
+    <row r="467" spans="1:11" x14ac:dyDescent="0.85">
       <c r="A467">
         <v>466</v>
       </c>
@@ -17946,7 +17536,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="468" spans="1:11" x14ac:dyDescent="0.7">
+    <row r="468" spans="1:11" x14ac:dyDescent="0.85">
       <c r="A468">
         <v>467</v>
       </c>
@@ -17981,7 +17571,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="469" spans="1:11" x14ac:dyDescent="0.7">
+    <row r="469" spans="1:11" x14ac:dyDescent="0.85">
       <c r="A469">
         <v>468</v>
       </c>
@@ -18016,7 +17606,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="470" spans="1:11" x14ac:dyDescent="0.7">
+    <row r="470" spans="1:11" x14ac:dyDescent="0.85">
       <c r="A470">
         <v>469</v>
       </c>
@@ -18051,7 +17641,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="471" spans="1:11" x14ac:dyDescent="0.7">
+    <row r="471" spans="1:11" x14ac:dyDescent="0.85">
       <c r="A471">
         <v>470</v>
       </c>
@@ -18086,7 +17676,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="472" spans="1:11" x14ac:dyDescent="0.7">
+    <row r="472" spans="1:11" x14ac:dyDescent="0.85">
       <c r="A472">
         <v>471</v>
       </c>
@@ -18121,7 +17711,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="473" spans="1:11" x14ac:dyDescent="0.7">
+    <row r="473" spans="1:11" x14ac:dyDescent="0.85">
       <c r="A473">
         <v>472</v>
       </c>
@@ -18156,7 +17746,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="474" spans="1:11" x14ac:dyDescent="0.7">
+    <row r="474" spans="1:11" x14ac:dyDescent="0.85">
       <c r="A474">
         <v>473</v>
       </c>
@@ -18191,7 +17781,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="475" spans="1:11" x14ac:dyDescent="0.7">
+    <row r="475" spans="1:11" x14ac:dyDescent="0.85">
       <c r="A475">
         <v>474</v>
       </c>
@@ -18226,7 +17816,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="476" spans="1:11" x14ac:dyDescent="0.7">
+    <row r="476" spans="1:11" x14ac:dyDescent="0.85">
       <c r="A476">
         <v>475</v>
       </c>
@@ -18261,7 +17851,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="477" spans="1:11" x14ac:dyDescent="0.7">
+    <row r="477" spans="1:11" x14ac:dyDescent="0.85">
       <c r="A477">
         <v>476</v>
       </c>
@@ -18296,7 +17886,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="478" spans="1:11" x14ac:dyDescent="0.7">
+    <row r="478" spans="1:11" x14ac:dyDescent="0.85">
       <c r="A478">
         <v>477</v>
       </c>
@@ -18331,7 +17921,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="479" spans="1:11" x14ac:dyDescent="0.7">
+    <row r="479" spans="1:11" x14ac:dyDescent="0.85">
       <c r="A479">
         <v>478</v>
       </c>
@@ -18366,7 +17956,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="480" spans="1:11" x14ac:dyDescent="0.7">
+    <row r="480" spans="1:11" x14ac:dyDescent="0.85">
       <c r="A480">
         <v>479</v>
       </c>
@@ -18401,7 +17991,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="481" spans="1:11" x14ac:dyDescent="0.7">
+    <row r="481" spans="1:11" x14ac:dyDescent="0.85">
       <c r="A481">
         <v>480</v>
       </c>
@@ -18436,7 +18026,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="482" spans="1:11" x14ac:dyDescent="0.7">
+    <row r="482" spans="1:11" x14ac:dyDescent="0.85">
       <c r="A482">
         <v>481</v>
       </c>
@@ -18471,7 +18061,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="483" spans="1:11" x14ac:dyDescent="0.7">
+    <row r="483" spans="1:11" x14ac:dyDescent="0.85">
       <c r="A483">
         <v>482</v>
       </c>
@@ -18506,7 +18096,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="484" spans="1:11" x14ac:dyDescent="0.7">
+    <row r="484" spans="1:11" x14ac:dyDescent="0.85">
       <c r="A484">
         <v>483</v>
       </c>
@@ -18541,7 +18131,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="485" spans="1:11" x14ac:dyDescent="0.7">
+    <row r="485" spans="1:11" x14ac:dyDescent="0.85">
       <c r="A485">
         <v>484</v>
       </c>
@@ -18576,7 +18166,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="486" spans="1:11" x14ac:dyDescent="0.7">
+    <row r="486" spans="1:11" x14ac:dyDescent="0.85">
       <c r="A486">
         <v>485</v>
       </c>
@@ -18611,7 +18201,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="487" spans="1:11" x14ac:dyDescent="0.7">
+    <row r="487" spans="1:11" x14ac:dyDescent="0.85">
       <c r="A487">
         <v>486</v>
       </c>
@@ -18646,7 +18236,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="488" spans="1:11" x14ac:dyDescent="0.7">
+    <row r="488" spans="1:11" x14ac:dyDescent="0.85">
       <c r="A488">
         <v>487</v>
       </c>
@@ -18681,7 +18271,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="489" spans="1:11" x14ac:dyDescent="0.7">
+    <row r="489" spans="1:11" x14ac:dyDescent="0.85">
       <c r="A489">
         <v>488</v>
       </c>
@@ -18716,7 +18306,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="490" spans="1:11" x14ac:dyDescent="0.7">
+    <row r="490" spans="1:11" x14ac:dyDescent="0.85">
       <c r="A490">
         <v>489</v>
       </c>
@@ -18751,7 +18341,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="491" spans="1:11" x14ac:dyDescent="0.7">
+    <row r="491" spans="1:11" x14ac:dyDescent="0.85">
       <c r="A491">
         <v>490</v>
       </c>
@@ -18786,7 +18376,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="492" spans="1:11" x14ac:dyDescent="0.7">
+    <row r="492" spans="1:11" x14ac:dyDescent="0.85">
       <c r="A492">
         <v>491</v>
       </c>
@@ -18821,7 +18411,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="493" spans="1:11" x14ac:dyDescent="0.7">
+    <row r="493" spans="1:11" x14ac:dyDescent="0.85">
       <c r="A493">
         <v>492</v>
       </c>
@@ -18856,7 +18446,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="494" spans="1:11" x14ac:dyDescent="0.7">
+    <row r="494" spans="1:11" x14ac:dyDescent="0.85">
       <c r="A494">
         <v>493</v>
       </c>
@@ -18891,7 +18481,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="495" spans="1:11" x14ac:dyDescent="0.7">
+    <row r="495" spans="1:11" x14ac:dyDescent="0.85">
       <c r="A495">
         <v>494</v>
       </c>
@@ -18926,7 +18516,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="496" spans="1:11" x14ac:dyDescent="0.7">
+    <row r="496" spans="1:11" x14ac:dyDescent="0.85">
       <c r="A496">
         <v>495</v>
       </c>
@@ -18961,7 +18551,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="497" spans="1:11" x14ac:dyDescent="0.7">
+    <row r="497" spans="1:11" x14ac:dyDescent="0.85">
       <c r="A497">
         <v>496</v>
       </c>
@@ -18996,7 +18586,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="498" spans="1:11" x14ac:dyDescent="0.7">
+    <row r="498" spans="1:11" x14ac:dyDescent="0.85">
       <c r="A498">
         <v>497</v>
       </c>
@@ -19031,7 +18621,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="499" spans="1:11" x14ac:dyDescent="0.7">
+    <row r="499" spans="1:11" x14ac:dyDescent="0.85">
       <c r="A499">
         <v>498</v>
       </c>
@@ -19066,7 +18656,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="500" spans="1:11" x14ac:dyDescent="0.7">
+    <row r="500" spans="1:11" x14ac:dyDescent="0.85">
       <c r="A500">
         <v>499</v>
       </c>
@@ -19101,7 +18691,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="501" spans="1:11" x14ac:dyDescent="0.7">
+    <row r="501" spans="1:11" x14ac:dyDescent="0.85">
       <c r="A501">
         <v>500</v>
       </c>
@@ -19146,623 +18736,16 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DEA1EFAB-7C61-4540-A3F0-0269C34AD5F9}">
-  <dimension ref="A1:L31"/>
+  <dimension ref="A1"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="A11" sqref="A11"/>
-    </sheetView>
+    <sheetView zoomScale="115" zoomScaleNormal="115" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="20.7" x14ac:dyDescent="0.7"/>
+  <sheetFormatPr defaultRowHeight="21.3" x14ac:dyDescent="0.85"/>
   <cols>
-    <col min="7" max="7" width="13.9140625" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="9.95703125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="13.92578125" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="9.9609375" bestFit="1" customWidth="1"/>
   </cols>
-  <sheetData>
-    <row r="1" spans="1:12" x14ac:dyDescent="0.7">
-      <c r="A1" t="str" cm="1">
-        <f t="array" ref="A1:L6">_xlfn._xlws.PY(1,0)</f>
-        <v/>
-      </c>
-      <c r="B1" t="str">
-        <v>order_id</v>
-      </c>
-      <c r="C1" t="str">
-        <v>customer_id</v>
-      </c>
-      <c r="D1" t="str">
-        <v>product_id</v>
-      </c>
-      <c r="E1" t="str">
-        <v>product_name</v>
-      </c>
-      <c r="F1" t="str">
-        <v>category</v>
-      </c>
-      <c r="G1" t="str">
-        <v>unit_price</v>
-      </c>
-      <c r="H1" t="str">
-        <v>quantity</v>
-      </c>
-      <c r="I1" t="str">
-        <v>order_date</v>
-      </c>
-      <c r="J1" t="str">
-        <v>customer_age</v>
-      </c>
-      <c r="K1" t="str">
-        <v>customer_gender</v>
-      </c>
-      <c r="L1" t="str">
-        <v>country</v>
-      </c>
-    </row>
-    <row r="2" spans="1:12" x14ac:dyDescent="0.7">
-      <c r="A2">
-        <v>495</v>
-      </c>
-      <c r="B2">
-        <v>496</v>
-      </c>
-      <c r="C2">
-        <v>155</v>
-      </c>
-      <c r="D2">
-        <v>30</v>
-      </c>
-      <c r="E2" t="str">
-        <v>Jacket</v>
-      </c>
-      <c r="F2" t="str">
-        <v>Accessories</v>
-      </c>
-      <c r="G2">
-        <v>251</v>
-      </c>
-      <c r="H2">
-        <v>3</v>
-      </c>
-      <c r="I2" vm="11">
-        <v>44741</v>
-      </c>
-      <c r="J2">
-        <v>29</v>
-      </c>
-      <c r="K2" t="str">
-        <v>Male</v>
-      </c>
-      <c r="L2" t="str">
-        <v>Germany</v>
-      </c>
-    </row>
-    <row r="3" spans="1:12" x14ac:dyDescent="0.7">
-      <c r="A3">
-        <v>496</v>
-      </c>
-      <c r="B3">
-        <v>497</v>
-      </c>
-      <c r="C3">
-        <v>66</v>
-      </c>
-      <c r="D3">
-        <v>41</v>
-      </c>
-      <c r="E3" t="str">
-        <v>Tablet</v>
-      </c>
-      <c r="F3" t="str">
-        <v>Clothing</v>
-      </c>
-      <c r="G3">
-        <v>526</v>
-      </c>
-      <c r="H3">
-        <v>2</v>
-      </c>
-      <c r="I3" vm="12">
-        <v>44843</v>
-      </c>
-      <c r="J3">
-        <v>36</v>
-      </c>
-      <c r="K3" t="str">
-        <v>Female</v>
-      </c>
-      <c r="L3" t="str">
-        <v>Canada</v>
-      </c>
-    </row>
-    <row r="4" spans="1:12" x14ac:dyDescent="0.7">
-      <c r="A4">
-        <v>497</v>
-      </c>
-      <c r="B4">
-        <v>498</v>
-      </c>
-      <c r="C4">
-        <v>169</v>
-      </c>
-      <c r="D4">
-        <v>4</v>
-      </c>
-      <c r="E4" t="str">
-        <v>Camera</v>
-      </c>
-      <c r="F4" t="str">
-        <v>Accessories</v>
-      </c>
-      <c r="G4">
-        <v>981</v>
-      </c>
-      <c r="H4">
-        <v>1</v>
-      </c>
-      <c r="I4" vm="13">
-        <v>44881</v>
-      </c>
-      <c r="J4">
-        <v>54</v>
-      </c>
-      <c r="K4" t="str">
-        <v>Female</v>
-      </c>
-      <c r="L4" t="str">
-        <v>USA</v>
-      </c>
-    </row>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.7">
-      <c r="A5">
-        <v>498</v>
-      </c>
-      <c r="B5">
-        <v>499</v>
-      </c>
-      <c r="C5">
-        <v>112</v>
-      </c>
-      <c r="D5">
-        <v>4</v>
-      </c>
-      <c r="E5" t="str">
-        <v>Sunglasses</v>
-      </c>
-      <c r="F5" t="str">
-        <v>Electronics</v>
-      </c>
-      <c r="G5">
-        <v>871</v>
-      </c>
-      <c r="H5">
-        <v>2</v>
-      </c>
-      <c r="I5" vm="14">
-        <v>44787</v>
-      </c>
-      <c r="J5">
-        <v>61</v>
-      </c>
-      <c r="K5" t="str">
-        <v>Male</v>
-      </c>
-      <c r="L5" t="str">
-        <v>France</v>
-      </c>
-    </row>
-    <row r="6" spans="1:12" x14ac:dyDescent="0.7">
-      <c r="A6">
-        <v>499</v>
-      </c>
-      <c r="B6">
-        <v>500</v>
-      </c>
-      <c r="C6">
-        <v>13</v>
-      </c>
-      <c r="D6">
-        <v>28</v>
-      </c>
-      <c r="E6" t="str">
-        <v>Camera</v>
-      </c>
-      <c r="F6" t="str">
-        <v>Clothing</v>
-      </c>
-      <c r="G6">
-        <v>451</v>
-      </c>
-      <c r="H6">
-        <v>1</v>
-      </c>
-      <c r="I6" vm="15">
-        <v>44876</v>
-      </c>
-      <c r="J6">
-        <v>34</v>
-      </c>
-      <c r="K6" t="str">
-        <v>Female</v>
-      </c>
-      <c r="L6" t="str">
-        <v>USA</v>
-      </c>
-    </row>
-    <row r="8" spans="1:12" x14ac:dyDescent="0.7">
-      <c r="A8" t="str" cm="1">
-        <f t="array" ref="A8:L9">_xlfn._xlws.PY(2,0)</f>
-        <v/>
-      </c>
-      <c r="B8" t="str">
-        <v>order_id</v>
-      </c>
-      <c r="C8" t="str">
-        <v>customer_id</v>
-      </c>
-      <c r="D8" t="str">
-        <v>product_id</v>
-      </c>
-      <c r="E8" t="str">
-        <v>product_name</v>
-      </c>
-      <c r="F8" t="str">
-        <v>category</v>
-      </c>
-      <c r="G8" t="str">
-        <v>unit_price</v>
-      </c>
-      <c r="H8" t="str">
-        <v>quantity</v>
-      </c>
-      <c r="I8" t="str">
-        <v>order_date</v>
-      </c>
-      <c r="J8" t="str">
-        <v>customer_age</v>
-      </c>
-      <c r="K8" t="str">
-        <v>customer_gender</v>
-      </c>
-      <c r="L8" t="str">
-        <v>country</v>
-      </c>
-    </row>
-    <row r="9" spans="1:12" x14ac:dyDescent="0.7">
-      <c r="A9">
-        <v>346</v>
-      </c>
-      <c r="B9">
-        <v>347</v>
-      </c>
-      <c r="C9">
-        <v>17</v>
-      </c>
-      <c r="D9">
-        <v>38</v>
-      </c>
-      <c r="E9" t="str">
-        <v>T-shirt</v>
-      </c>
-      <c r="F9" t="str">
-        <v>Electronics</v>
-      </c>
-      <c r="G9">
-        <v>389</v>
-      </c>
-      <c r="H9">
-        <v>4</v>
-      </c>
-      <c r="I9" vm="16">
-        <v>44664</v>
-      </c>
-      <c r="J9">
-        <v>31</v>
-      </c>
-      <c r="K9" t="str">
-        <v>Male</v>
-      </c>
-      <c r="L9" t="str">
-        <v>Australia</v>
-      </c>
-    </row>
-    <row r="11" spans="1:12" x14ac:dyDescent="0.7">
-      <c r="A11" t="str" cm="1">
-        <f t="array" ref="A11:H19">_xlfn._xlws.PY(3,0)</f>
-        <v/>
-      </c>
-      <c r="B11" t="str">
-        <v>order_id</v>
-      </c>
-      <c r="C11" t="str">
-        <v>customer_id</v>
-      </c>
-      <c r="D11" t="str">
-        <v>product_id</v>
-      </c>
-      <c r="E11" t="str">
-        <v>unit_price</v>
-      </c>
-      <c r="F11" t="str">
-        <v>quantity</v>
-      </c>
-      <c r="G11" t="str">
-        <v>order_date</v>
-      </c>
-      <c r="H11" t="str">
-        <v>customer_age</v>
-      </c>
-    </row>
-    <row r="12" spans="1:12" x14ac:dyDescent="0.7">
-      <c r="A12" t="str">
-        <v>count</v>
-      </c>
-      <c r="B12">
-        <v>500</v>
-      </c>
-      <c r="C12">
-        <v>500</v>
-      </c>
-      <c r="D12">
-        <v>500</v>
-      </c>
-      <c r="E12">
-        <v>500</v>
-      </c>
-      <c r="F12">
-        <v>500</v>
-      </c>
-      <c r="G12">
-        <v>500</v>
-      </c>
-      <c r="H12">
-        <v>500</v>
-      </c>
-    </row>
-    <row r="13" spans="1:12" x14ac:dyDescent="0.7">
-      <c r="A13" t="str">
-        <v>mean</v>
-      </c>
-      <c r="B13">
-        <v>250.5</v>
-      </c>
-      <c r="C13">
-        <v>101.312</v>
-      </c>
-      <c r="D13">
-        <v>25.36</v>
-      </c>
-      <c r="E13">
-        <v>568.20399999999995</v>
-      </c>
-      <c r="F13">
-        <v>2.5739999999999998</v>
-      </c>
-      <c r="G13" vm="17">
-        <v>44738.993999999999</v>
-      </c>
-      <c r="H13">
-        <v>41.38</v>
-      </c>
-    </row>
-    <row r="14" spans="1:12" x14ac:dyDescent="0.7">
-      <c r="A14" t="str">
-        <v>min</v>
-      </c>
-      <c r="B14">
-        <v>1</v>
-      </c>
-      <c r="C14">
-        <v>2</v>
-      </c>
-      <c r="D14">
-        <v>1</v>
-      </c>
-      <c r="E14">
-        <v>51</v>
-      </c>
-      <c r="F14">
-        <v>1</v>
-      </c>
-      <c r="G14" vm="7">
-        <v>44562</v>
-      </c>
-      <c r="H14">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="15" spans="1:12" x14ac:dyDescent="0.7">
-      <c r="A15" t="str">
-        <v>10%</v>
-      </c>
-      <c r="B15">
-        <v>50.900000000000006</v>
-      </c>
-      <c r="C15">
-        <v>16.900000000000006</v>
-      </c>
-      <c r="D15">
-        <v>6</v>
-      </c>
-      <c r="E15">
-        <v>141</v>
-      </c>
-      <c r="F15">
-        <v>1</v>
-      </c>
-      <c r="G15" vm="18">
-        <v>44595.9</v>
-      </c>
-      <c r="H15">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="16" spans="1:12" x14ac:dyDescent="0.7">
-      <c r="A16" t="str">
-        <v>50%</v>
-      </c>
-      <c r="B16">
-        <v>250.5</v>
-      </c>
-      <c r="C16">
-        <v>106</v>
-      </c>
-      <c r="D16">
-        <v>25</v>
-      </c>
-      <c r="E16">
-        <v>558</v>
-      </c>
-      <c r="F16">
-        <v>3</v>
-      </c>
-      <c r="G16" vm="11">
-        <v>44741</v>
-      </c>
-      <c r="H16">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="17" spans="1:8" x14ac:dyDescent="0.7">
-      <c r="A17" t="str">
-        <v>90%</v>
-      </c>
-      <c r="B17">
-        <v>450.1</v>
-      </c>
-      <c r="C17">
-        <v>180</v>
-      </c>
-      <c r="D17">
-        <v>45.100000000000023</v>
-      </c>
-      <c r="E17">
-        <v>928</v>
-      </c>
-      <c r="F17">
-        <v>4</v>
-      </c>
-      <c r="G17" vm="19">
-        <v>44884.2</v>
-      </c>
-      <c r="H17">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="18" spans="1:8" x14ac:dyDescent="0.7">
-      <c r="A18" t="str">
-        <v>max</v>
-      </c>
-      <c r="B18">
-        <v>500</v>
-      </c>
-      <c r="C18">
-        <v>200</v>
-      </c>
-      <c r="D18">
-        <v>50</v>
-      </c>
-      <c r="E18">
-        <v>992</v>
-      </c>
-      <c r="F18">
-        <v>4</v>
-      </c>
-      <c r="G18" vm="20">
-        <v>44926</v>
-      </c>
-      <c r="H18">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="19" spans="1:8" x14ac:dyDescent="0.7">
-      <c r="A19" t="str">
-        <v>std</v>
-      </c>
-      <c r="B19">
-        <v>144.4818327679989</v>
-      </c>
-      <c r="C19">
-        <v>58.975001123484788</v>
-      </c>
-      <c r="D19">
-        <v>14.087985756855764</v>
-      </c>
-      <c r="E19">
-        <v>275.30178446399191</v>
-      </c>
-      <c r="F19">
-        <v>1.1450529649693799</v>
-      </c>
-      <c r="G19" t="e">
-        <v>#NUM!</v>
-      </c>
-      <c r="H19">
-        <v>13.749826014566938</v>
-      </c>
-    </row>
-    <row r="21" spans="1:8" x14ac:dyDescent="0.7">
-      <c r="A21" t="e" cm="1" vm="21">
-        <f t="array" ref="A21">_xlfn._xlws.PY(4,1)</f>
-        <v>#VALUE!</v>
-      </c>
-    </row>
-    <row r="25" spans="1:8" x14ac:dyDescent="0.7">
-      <c r="A25" t="str" cm="1">
-        <f t="array" ref="A25:B31">_xlfn._xlws.PY(5,0)</f>
-        <v>country</v>
-      </c>
-      <c r="B25" t="str">
-        <v>count</v>
-      </c>
-    </row>
-    <row r="26" spans="1:8" x14ac:dyDescent="0.7">
-      <c r="A26" t="str">
-        <v>Canada</v>
-      </c>
-      <c r="B26">
-        <v>93</v>
-      </c>
-    </row>
-    <row r="27" spans="1:8" x14ac:dyDescent="0.7">
-      <c r="A27" t="str">
-        <v>Germany</v>
-      </c>
-      <c r="B27">
-        <v>91</v>
-      </c>
-    </row>
-    <row r="28" spans="1:8" x14ac:dyDescent="0.7">
-      <c r="A28" t="str">
-        <v>USA</v>
-      </c>
-      <c r="B28">
-        <v>86</v>
-      </c>
-    </row>
-    <row r="29" spans="1:8" x14ac:dyDescent="0.7">
-      <c r="A29" t="str">
-        <v>Australia</v>
-      </c>
-      <c r="B29">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="30" spans="1:8" x14ac:dyDescent="0.7">
-      <c r="A30" t="str">
-        <v>France</v>
-      </c>
-      <c r="B30">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="31" spans="1:8" x14ac:dyDescent="0.7">
-      <c r="A31" t="str">
-        <v>UK</v>
-      </c>
-      <c r="B31">
-        <v>65</v>
-      </c>
-    </row>
-  </sheetData>
+  <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>